--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,25 +626,25 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.005490598741494</v>
+      </c>
+      <c r="D3">
+        <v>0.9858004410429821</v>
+      </c>
+      <c r="E3">
         <v>1.016506246123946</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>1.006786283247563</v>
+      </c>
+      <c r="G3">
         <v>0.9718900977339328</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>1.002868681699677</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>1.016506246123946</v>
-      </c>
-      <c r="G3">
-        <v>1.005490598741494</v>
-      </c>
-      <c r="H3">
-        <v>0.9858004410429821</v>
-      </c>
-      <c r="I3">
-        <v>1.006786283247563</v>
       </c>
       <c r="J3">
         <v>0.9718900977339328</v>
@@ -725,10 +677,10 @@
         <v>1.001942817920375</v>
       </c>
       <c r="T3">
-        <v>0.9982237247649324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9982237247649325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.010734741634625</v>
+      </c>
+      <c r="D4">
+        <v>0.9726592396014222</v>
+      </c>
+      <c r="E4">
         <v>1.031677234039843</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>1.01308062039603</v>
+      </c>
+      <c r="G4">
         <v>0.9455176555206817</v>
       </c>
-      <c r="E4">
-        <v>1.005584259312402</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
+        <v>1.005584259312403</v>
+      </c>
+      <c r="I4">
         <v>1.031677234039843</v>
-      </c>
-      <c r="G4">
-        <v>1.010734741634625</v>
-      </c>
-      <c r="H4">
-        <v>0.9726592396014222</v>
-      </c>
-      <c r="I4">
-        <v>1.01308062039603</v>
       </c>
       <c r="J4">
         <v>0.9455176555206817</v>
@@ -763,22 +715,22 @@
         <v>1.031677234039843</v>
       </c>
       <c r="L4">
-        <v>1.005584259312402</v>
+        <v>1.005584259312403</v>
       </c>
       <c r="M4">
-        <v>0.9755509574165421</v>
+        <v>0.9755509574165423</v>
       </c>
       <c r="N4">
-        <v>0.9755509574165421</v>
+        <v>0.9755509574165423</v>
       </c>
       <c r="O4">
-        <v>0.9745870514781688</v>
+        <v>0.9745870514781689</v>
       </c>
       <c r="P4">
-        <v>0.9942597162909759</v>
+        <v>0.994259716290976</v>
       </c>
       <c r="Q4">
-        <v>0.9942597162909759</v>
+        <v>0.994259716290976</v>
       </c>
       <c r="R4">
         <v>1.003614095728193</v>
@@ -787,10 +739,10 @@
         <v>1.003614095728193</v>
       </c>
       <c r="T4">
-        <v>0.9965422917508341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9965422917508343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.022325121962063</v>
+      </c>
+      <c r="D5">
+        <v>0.9475886826043551</v>
+      </c>
+      <c r="E5">
         <v>1.059354052817176</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1.024939178161619</v>
+      </c>
+      <c r="G5">
         <v>0.8969245190905412</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>1.011101819701415</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>1.059354052817176</v>
-      </c>
-      <c r="G5">
-        <v>1.022325121962063</v>
-      </c>
-      <c r="H5">
-        <v>0.9475886826043551</v>
-      </c>
-      <c r="I5">
-        <v>1.024939178161618</v>
       </c>
       <c r="J5">
         <v>0.8969245190905412</v>
@@ -852,7 +804,7 @@
         <v>0.9937055623895281</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.032591385034919</v>
+      </c>
+      <c r="D6">
+        <v>0.9224829197045707</v>
+      </c>
+      <c r="E6">
         <v>1.086473725676809</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>1.036893549348306</v>
+      </c>
+      <c r="G6">
         <v>0.8503054731578428</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>1.017217528938717</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>1.086473725676809</v>
-      </c>
-      <c r="G6">
-        <v>1.032591385034919</v>
-      </c>
-      <c r="H6">
-        <v>0.9224829197045707</v>
-      </c>
-      <c r="I6">
-        <v>1.036893549348306</v>
       </c>
       <c r="J6">
         <v>0.8503054731578428</v>
@@ -914,7 +866,7 @@
         <v>0.9909940969768609</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,25 +874,25 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.00210738506561</v>
+      </c>
+      <c r="D7">
+        <v>0.9990904683184813</v>
+      </c>
+      <c r="E7">
         <v>0.9997331007781609</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <v>1.000340618328413</v>
+      </c>
+      <c r="G7">
         <v>0.998824782848407</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>1.000598062031696</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>0.9997331007781609</v>
-      </c>
-      <c r="G7">
-        <v>1.00210738506561</v>
-      </c>
-      <c r="H7">
-        <v>0.9990904683184813</v>
-      </c>
-      <c r="I7">
-        <v>1.000340618328413</v>
       </c>
       <c r="J7">
         <v>0.998824782848407</v>
@@ -976,7 +928,7 @@
         <v>1.000115736228461</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.005159526707476</v>
+      </c>
+      <c r="D8">
+        <v>0.9976691628951723</v>
+      </c>
+      <c r="E8">
         <v>0.9994773760579733</v>
       </c>
-      <c r="D8">
-        <v>0.9968968185729953</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
+        <v>1.000889434132372</v>
+      </c>
+      <c r="G8">
+        <v>0.9968968185729949</v>
+      </c>
+      <c r="H8">
         <v>1.001486995335794</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>0.9994773760579733</v>
       </c>
-      <c r="G8">
-        <v>1.005159526707475</v>
-      </c>
-      <c r="H8">
-        <v>0.9976691628951724</v>
-      </c>
-      <c r="I8">
-        <v>1.000889434132372</v>
-      </c>
       <c r="J8">
-        <v>0.9968968185729953</v>
+        <v>0.9968968185729949</v>
       </c>
       <c r="K8">
         <v>0.9994773760579733</v>
@@ -1014,16 +966,16 @@
         <v>1.001486995335794</v>
       </c>
       <c r="M8">
-        <v>0.9991919069543949</v>
+        <v>0.9991919069543946</v>
       </c>
       <c r="N8">
-        <v>0.9991919069543949</v>
+        <v>0.9991919069543946</v>
       </c>
       <c r="O8">
-        <v>0.9986843256013206</v>
+        <v>0.9986843256013205</v>
       </c>
       <c r="P8">
-        <v>0.9992870633222544</v>
+        <v>0.9992870633222543</v>
       </c>
       <c r="Q8">
         <v>0.9992870633222543</v>
@@ -1038,7 +990,7 @@
         <v>1.000263218950297</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.006718172830049</v>
+      </c>
+      <c r="D9">
+        <v>0.9967029531072729</v>
+      </c>
+      <c r="E9">
         <v>0.9996482809467907</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1.001295998703567</v>
+      </c>
+      <c r="G9">
         <v>0.9953981197080701</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>1.001997517425149</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>0.9996482809467907</v>
-      </c>
-      <c r="G9">
-        <v>1.006718172830049</v>
-      </c>
-      <c r="H9">
-        <v>0.9967029531072729</v>
-      </c>
-      <c r="I9">
-        <v>1.001295998703567</v>
       </c>
       <c r="J9">
         <v>0.9953981197080701</v>
@@ -1100,7 +1052,7 @@
         <v>1.00029350712015</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.015077157189243</v>
+      </c>
+      <c r="D10">
+        <v>0.9929305053672144</v>
+      </c>
+      <c r="E10">
         <v>0.9988182310966298</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>1.00273128981002</v>
+      </c>
+      <c r="G10">
         <v>0.9903763491177056</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>1.004395699838794</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>0.9988182310966298</v>
-      </c>
-      <c r="G10">
-        <v>1.015077157189243</v>
-      </c>
-      <c r="H10">
-        <v>0.9929305053672144</v>
-      </c>
-      <c r="I10">
-        <v>1.00273128981002</v>
       </c>
       <c r="J10">
         <v>0.9903763491177056</v>
@@ -1162,7 +1114,7 @@
         <v>1.000721538736601</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,25 +1122,25 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.0237629402629</v>
+      </c>
+      <c r="D11">
+        <v>0.9881915459096451</v>
+      </c>
+      <c r="E11">
         <v>0.9989865255630518</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1.004653877358743</v>
+      </c>
+      <c r="G11">
         <v>0.983415540190979</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>1.007072634820444</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>0.9989865255630518</v>
-      </c>
-      <c r="G11">
-        <v>1.0237629402629</v>
-      </c>
-      <c r="H11">
-        <v>0.9881915459096451</v>
-      </c>
-      <c r="I11">
-        <v>1.004653877358743</v>
       </c>
       <c r="J11">
         <v>0.983415540190979</v>
@@ -1224,7 +1176,7 @@
         <v>1.001013844017627</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.673723764878202</v>
+      </c>
+      <c r="D12">
+        <v>1.102813391086706</v>
+      </c>
+      <c r="E12">
         <v>1.127529931029186</v>
       </c>
-      <c r="D12">
-        <v>1.080266239210385</v>
-      </c>
-      <c r="E12">
+      <c r="F12">
+        <v>0.9631475760892617</v>
+      </c>
+      <c r="G12">
+        <v>1.080266239210386</v>
+      </c>
+      <c r="H12">
         <v>0.8953109169258399</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>1.127529931029186</v>
       </c>
-      <c r="G12">
-        <v>0.6737237648782022</v>
-      </c>
-      <c r="H12">
-        <v>1.102813391086706</v>
-      </c>
-      <c r="I12">
-        <v>0.9631475760892618</v>
-      </c>
       <c r="J12">
-        <v>1.080266239210385</v>
+        <v>1.080266239210386</v>
       </c>
       <c r="K12">
         <v>1.127529931029186</v>
@@ -1262,10 +1214,10 @@
         <v>0.8953109169258399</v>
       </c>
       <c r="M12">
-        <v>0.9877885780681126</v>
+        <v>0.9877885780681128</v>
       </c>
       <c r="N12">
-        <v>0.9877885780681126</v>
+        <v>0.9877885780681128</v>
       </c>
       <c r="O12">
         <v>1.026130182407644</v>
@@ -1286,7 +1238,7 @@
         <v>0.9737986365365967</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.047251050527995</v>
+      </c>
+      <c r="D13">
+        <v>1.027868909376407</v>
+      </c>
+      <c r="E13">
         <v>0.913972683505371</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>0.9830813091344336</v>
+      </c>
+      <c r="G13">
         <v>1.105870336823763</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>1.011600528441368</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>0.913972683505371</v>
-      </c>
-      <c r="G13">
-        <v>1.047251050527995</v>
-      </c>
-      <c r="H13">
-        <v>1.027868909376407</v>
-      </c>
-      <c r="I13">
-        <v>0.9830813091344333</v>
       </c>
       <c r="J13">
         <v>1.105870336823763</v>
@@ -1339,16 +1291,16 @@
         <v>1.010481182923501</v>
       </c>
       <c r="R13">
-        <v>0.9863540580689683</v>
+        <v>0.9863540580689685</v>
       </c>
       <c r="S13">
-        <v>0.9863540580689683</v>
+        <v>0.9863540580689685</v>
       </c>
       <c r="T13">
         <v>1.014940802968223</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,25 +1308,25 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.6737285090612065</v>
+      </c>
+      <c r="D14">
+        <v>1.102807217321749</v>
+      </c>
+      <c r="E14">
         <v>1.127533510704577</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>0.9631511317995493</v>
+      </c>
+      <c r="G14">
         <v>1.080251995291118</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>0.8953132396605803</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>1.127533510704577</v>
-      </c>
-      <c r="G14">
-        <v>0.6737285090612063</v>
-      </c>
-      <c r="H14">
-        <v>1.102807217321749</v>
-      </c>
-      <c r="I14">
-        <v>0.9631511317995493</v>
       </c>
       <c r="J14">
         <v>1.080251995291118</v>
@@ -1386,10 +1338,10 @@
         <v>0.8953132396605803</v>
       </c>
       <c r="M14">
-        <v>0.9877826174758489</v>
+        <v>0.9877826174758491</v>
       </c>
       <c r="N14">
-        <v>0.9877826174758489</v>
+        <v>0.9877826174758491</v>
       </c>
       <c r="O14">
         <v>1.026124150757816</v>
@@ -1410,7 +1362,7 @@
         <v>0.9737976006397965</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,25 +1370,25 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.047254677975845</v>
+      </c>
+      <c r="D15">
+        <v>1.027866980765599</v>
+      </c>
+      <c r="E15">
         <v>0.9139735157150428</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>0.9830818209775607</v>
+      </c>
+      <c r="G15">
         <v>1.105868676006457</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>1.01160124971113</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>0.9139735157150428</v>
-      </c>
-      <c r="G15">
-        <v>1.047254677975845</v>
-      </c>
-      <c r="H15">
-        <v>1.0278669807656</v>
-      </c>
-      <c r="I15">
-        <v>0.9830818209775607</v>
       </c>
       <c r="J15">
         <v>1.105868676006457</v>
@@ -1454,7 +1406,7 @@
         <v>1.058734962858793</v>
       </c>
       <c r="O15">
-        <v>1.048445635494396</v>
+        <v>1.048445635494395</v>
       </c>
       <c r="P15">
         <v>1.01048114714421</v>
@@ -1472,7 +1424,7 @@
         <v>1.014941153525273</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.999197578514917</v>
+        <v>1.133489983960954</v>
       </c>
       <c r="D16">
-        <v>1.000402571983614</v>
+        <v>0.725675739557003</v>
       </c>
       <c r="E16">
-        <v>1.000247168299788</v>
+        <v>1.296847562491805</v>
       </c>
       <c r="F16">
-        <v>0.999197578514917</v>
+        <v>1.130325742073575</v>
       </c>
       <c r="G16">
-        <v>1.001095832439562</v>
+        <v>0.4597807779058907</v>
       </c>
       <c r="H16">
-        <v>1.000003427174073</v>
+        <v>1.063018477493221</v>
       </c>
       <c r="I16">
-        <v>0.9999327913080519</v>
+        <v>1.296847562491805</v>
       </c>
       <c r="J16">
-        <v>1.000402571983614</v>
+        <v>0.4597807779058907</v>
       </c>
       <c r="K16">
-        <v>0.999197578514917</v>
+        <v>1.296847562491805</v>
       </c>
       <c r="L16">
-        <v>1.000247168299788</v>
+        <v>1.063018477493221</v>
       </c>
       <c r="M16">
-        <v>1.000324870141701</v>
+        <v>0.761399627699556</v>
       </c>
       <c r="N16">
-        <v>1.000324870141701</v>
+        <v>0.761399627699556</v>
       </c>
       <c r="O16">
-        <v>1.000217722485825</v>
+        <v>0.7494916649853717</v>
       </c>
       <c r="P16">
-        <v>0.9999491062661066</v>
+        <v>0.9398822726303058</v>
       </c>
       <c r="Q16">
-        <v>0.9999491062661064</v>
+        <v>0.9398822726303058</v>
       </c>
       <c r="R16">
-        <v>0.9997612243283091</v>
+        <v>1.029123595095681</v>
       </c>
       <c r="S16">
-        <v>0.9997612243283091</v>
+        <v>1.029123595095681</v>
       </c>
       <c r="T16">
-        <v>1.000146561620001</v>
+        <v>0.9681897139137415</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000422824834236</v>
+        <v>1.167165943480523</v>
       </c>
       <c r="D17">
-        <v>0.9981248686568671</v>
+        <v>0.7788351958832949</v>
       </c>
       <c r="E17">
-        <v>1.000490758278101</v>
+        <v>1.192209921668154</v>
       </c>
       <c r="F17">
-        <v>1.000422824834236</v>
+        <v>1.102196055043425</v>
       </c>
       <c r="G17">
-        <v>1.001739214522223</v>
+        <v>0.5858145583056142</v>
       </c>
       <c r="H17">
-        <v>0.9988549456753879</v>
+        <v>1.066089597427112</v>
       </c>
       <c r="I17">
-        <v>1.000476729666993</v>
+        <v>1.192209921668154</v>
       </c>
       <c r="J17">
-        <v>0.9981248686568671</v>
+        <v>0.5858145583056142</v>
       </c>
       <c r="K17">
-        <v>1.000422824834236</v>
+        <v>1.192209921668154</v>
       </c>
       <c r="L17">
-        <v>1.000490758278101</v>
+        <v>1.066089597427112</v>
       </c>
       <c r="M17">
-        <v>0.9993078134674839</v>
+        <v>0.8259520778663633</v>
       </c>
       <c r="N17">
-        <v>0.9993078134674839</v>
+        <v>0.8259520778663633</v>
       </c>
       <c r="O17">
-        <v>0.9991568575367852</v>
+        <v>0.8102464505386738</v>
       </c>
       <c r="P17">
-        <v>0.9996794839230678</v>
+        <v>0.9480380258002935</v>
       </c>
       <c r="Q17">
-        <v>0.9996794839230678</v>
+        <v>0.9480380258002935</v>
       </c>
       <c r="R17">
-        <v>0.9998653191508597</v>
+        <v>1.009080999767259</v>
       </c>
       <c r="S17">
-        <v>0.9998653191508597</v>
+        <v>1.009080999767259</v>
       </c>
       <c r="T17">
-        <v>1.000018223605635</v>
+        <v>0.9820518786346873</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004111720000526</v>
+        <v>1.231897955297974</v>
       </c>
       <c r="D18">
-        <v>0.9917376887709261</v>
+        <v>0.8855535562937699</v>
       </c>
       <c r="E18">
-        <v>1.001186939068027</v>
+        <v>0.9843199285201826</v>
       </c>
       <c r="F18">
-        <v>1.004111720000526</v>
+        <v>1.045879522937275</v>
       </c>
       <c r="G18">
-        <v>1.002978492003536</v>
+        <v>0.83777977152336</v>
       </c>
       <c r="H18">
-        <v>0.9957163381542308</v>
+        <v>1.071577907323612</v>
       </c>
       <c r="I18">
-        <v>1.001948515838852</v>
+        <v>0.9843199285201826</v>
       </c>
       <c r="J18">
-        <v>0.9917376887709261</v>
+        <v>0.83777977152336</v>
       </c>
       <c r="K18">
-        <v>1.004111720000526</v>
+        <v>0.9843199285201826</v>
       </c>
       <c r="L18">
-        <v>1.001186939068027</v>
+        <v>1.071577907323612</v>
       </c>
       <c r="M18">
-        <v>0.9964623139194764</v>
+        <v>0.9546788394234857</v>
       </c>
       <c r="N18">
-        <v>0.9964623139194764</v>
+        <v>0.9546788394234857</v>
       </c>
       <c r="O18">
-        <v>0.9962136553310611</v>
+        <v>0.9316370783802471</v>
       </c>
       <c r="P18">
-        <v>0.9990121159464929</v>
+        <v>0.964559202455718</v>
       </c>
       <c r="Q18">
-        <v>0.9990121159464929</v>
+        <v>0.964559202455718</v>
       </c>
       <c r="R18">
-        <v>1.000287016960001</v>
+        <v>0.9694993839718342</v>
       </c>
       <c r="S18">
-        <v>1.000287016960001</v>
+        <v>0.9694993839718342</v>
       </c>
       <c r="T18">
-        <v>0.9996132823060163</v>
+        <v>1.009501440316029</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1618,306 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.282762913117673</v>
+      </c>
+      <c r="D19">
+        <v>0.8755906469624388</v>
+      </c>
+      <c r="E19">
+        <v>0.9623856227707707</v>
+      </c>
+      <c r="F19">
+        <v>1.047301893860699</v>
+      </c>
+      <c r="G19">
+        <v>0.8442382465710164</v>
+      </c>
+      <c r="H19">
+        <v>1.082759035799924</v>
+      </c>
+      <c r="I19">
+        <v>0.9623856227707707</v>
+      </c>
+      <c r="J19">
+        <v>0.8442382465710164</v>
+      </c>
+      <c r="K19">
+        <v>0.9623856227707707</v>
+      </c>
+      <c r="L19">
+        <v>1.082759035799924</v>
+      </c>
+      <c r="M19">
+        <v>0.9634986411854702</v>
+      </c>
+      <c r="N19">
+        <v>0.9634986411854702</v>
+      </c>
+      <c r="O19">
+        <v>0.9341959764444597</v>
+      </c>
+      <c r="P19">
+        <v>0.9631276350472371</v>
+      </c>
+      <c r="Q19">
+        <v>0.9631276350472371</v>
+      </c>
+      <c r="R19">
+        <v>0.9629421319781205</v>
+      </c>
+      <c r="S19">
+        <v>0.9629421319781205</v>
+      </c>
+      <c r="T19">
+        <v>1.015839726513754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.001095832439562</v>
+      </c>
+      <c r="D20">
+        <v>1.000003427174073</v>
+      </c>
+      <c r="E20">
+        <v>0.9991975785149171</v>
+      </c>
+      <c r="F20">
+        <v>0.9999327913080522</v>
+      </c>
+      <c r="G20">
+        <v>1.000402571983614</v>
+      </c>
+      <c r="H20">
+        <v>1.000247168299788</v>
+      </c>
+      <c r="I20">
+        <v>0.9991975785149171</v>
+      </c>
+      <c r="J20">
+        <v>1.000402571983614</v>
+      </c>
+      <c r="K20">
+        <v>0.9991975785149171</v>
+      </c>
+      <c r="L20">
+        <v>1.000247168299788</v>
+      </c>
+      <c r="M20">
+        <v>1.000324870141701</v>
+      </c>
+      <c r="N20">
+        <v>1.000324870141701</v>
+      </c>
+      <c r="O20">
+        <v>1.000217722485825</v>
+      </c>
+      <c r="P20">
+        <v>0.9999491062661066</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999491062661066</v>
+      </c>
+      <c r="R20">
+        <v>0.9997612243283092</v>
+      </c>
+      <c r="S20">
+        <v>0.9997612243283092</v>
+      </c>
+      <c r="T20">
+        <v>1.000146561620001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.001739214522223</v>
+      </c>
+      <c r="D21">
+        <v>0.9988549456753875</v>
+      </c>
+      <c r="E21">
+        <v>1.000422824834236</v>
+      </c>
+      <c r="F21">
+        <v>1.000476729666993</v>
+      </c>
+      <c r="G21">
+        <v>0.9981248686568673</v>
+      </c>
+      <c r="H21">
+        <v>1.000490758278101</v>
+      </c>
+      <c r="I21">
+        <v>1.000422824834236</v>
+      </c>
+      <c r="J21">
+        <v>0.9981248686568673</v>
+      </c>
+      <c r="K21">
+        <v>1.000422824834236</v>
+      </c>
+      <c r="L21">
+        <v>1.000490758278101</v>
+      </c>
+      <c r="M21">
+        <v>0.999307813467484</v>
+      </c>
+      <c r="N21">
+        <v>0.999307813467484</v>
+      </c>
+      <c r="O21">
+        <v>0.9991568575367852</v>
+      </c>
+      <c r="P21">
+        <v>0.9996794839230682</v>
+      </c>
+      <c r="Q21">
+        <v>0.9996794839230682</v>
+      </c>
+      <c r="R21">
+        <v>0.9998653191508602</v>
+      </c>
+      <c r="S21">
+        <v>0.9998653191508602</v>
+      </c>
+      <c r="T21">
+        <v>1.000018223605635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.002978492003536</v>
+      </c>
+      <c r="D22">
+        <v>0.9957163381542307</v>
+      </c>
+      <c r="E22">
+        <v>1.004111720000526</v>
+      </c>
+      <c r="F22">
+        <v>1.001948515838852</v>
+      </c>
+      <c r="G22">
+        <v>0.9917376887709259</v>
+      </c>
+      <c r="H22">
+        <v>1.001186939068027</v>
+      </c>
+      <c r="I22">
+        <v>1.004111720000526</v>
+      </c>
+      <c r="J22">
+        <v>0.9917376887709259</v>
+      </c>
+      <c r="K22">
+        <v>1.004111720000526</v>
+      </c>
+      <c r="L22">
+        <v>1.001186939068027</v>
+      </c>
+      <c r="M22">
+        <v>0.9964623139194764</v>
+      </c>
+      <c r="N22">
+        <v>0.9964623139194764</v>
+      </c>
+      <c r="O22">
+        <v>0.9962136553310611</v>
+      </c>
+      <c r="P22">
+        <v>0.9990121159464929</v>
+      </c>
+      <c r="Q22">
+        <v>0.9990121159464929</v>
+      </c>
+      <c r="R22">
+        <v>1.000287016960001</v>
+      </c>
+      <c r="S22">
+        <v>1.000287016960001</v>
+      </c>
+      <c r="T22">
+        <v>0.9996132823060163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.003593582317281</v>
+      </c>
+      <c r="D23">
+        <v>0.9897858989407718</v>
+      </c>
+      <c r="E23">
         <v>1.012327702497398</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.004883746727554</v>
+      </c>
+      <c r="G23">
         <v>0.97926736794866</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>1.001938215405189</v>
       </c>
-      <c r="F19">
+      <c r="I23">
         <v>1.012327702497398</v>
       </c>
-      <c r="G19">
-        <v>1.003593582317281</v>
-      </c>
-      <c r="H19">
-        <v>0.9897858989407718</v>
-      </c>
-      <c r="I19">
-        <v>1.004883746727554</v>
-      </c>
-      <c r="J19">
+      <c r="J23">
         <v>0.97926736794866</v>
       </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.012327702497398</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.001938215405189</v>
       </c>
-      <c r="M19">
-        <v>0.9906027916769244</v>
-      </c>
-      <c r="N19">
-        <v>0.9906027916769244</v>
-      </c>
-      <c r="O19">
-        <v>0.9903304940982069</v>
-      </c>
-      <c r="P19">
-        <v>0.9978444286170821</v>
-      </c>
-      <c r="Q19">
-        <v>0.9978444286170821</v>
-      </c>
-      <c r="R19">
+      <c r="M23">
+        <v>0.9906027916769242</v>
+      </c>
+      <c r="N23">
+        <v>0.9906027916769242</v>
+      </c>
+      <c r="O23">
+        <v>0.9903304940982068</v>
+      </c>
+      <c r="P23">
+        <v>0.997844428617082</v>
+      </c>
+      <c r="Q23">
+        <v>0.997844428617082</v>
+      </c>
+      <c r="R23">
         <v>1.001465247087161</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.001465247087161</v>
       </c>
-      <c r="T19">
-        <v>0.9986327523061423</v>
+      <c r="T23">
+        <v>0.9986327523061421</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.005490598741494</v>
+        <v>1.273332453753596</v>
       </c>
       <c r="D3">
-        <v>0.9858004410429821</v>
+        <v>0.864419154963976</v>
       </c>
       <c r="E3">
-        <v>1.016506246123946</v>
+        <v>0.9845379370749309</v>
       </c>
       <c r="F3">
-        <v>1.006786283247563</v>
+        <v>1.054093513335739</v>
       </c>
       <c r="G3">
-        <v>0.9718900977339328</v>
+        <v>0.8077704244481285</v>
       </c>
       <c r="H3">
-        <v>1.002868681699677</v>
+        <v>1.083274970007206</v>
       </c>
       <c r="I3">
-        <v>1.016506246123946</v>
+        <v>0.9845379370749309</v>
       </c>
       <c r="J3">
-        <v>0.9718900977339328</v>
+        <v>0.8077704244481285</v>
       </c>
       <c r="K3">
-        <v>1.016506246123946</v>
+        <v>0.9845379370749309</v>
       </c>
       <c r="L3">
-        <v>1.002868681699677</v>
+        <v>1.083274970007206</v>
       </c>
       <c r="M3">
-        <v>0.9873793897168046</v>
+        <v>0.945522697227667</v>
       </c>
       <c r="N3">
-        <v>0.9873793897168046</v>
+        <v>0.945522697227667</v>
       </c>
       <c r="O3">
-        <v>0.9868530734921972</v>
+        <v>0.91848818313977</v>
       </c>
       <c r="P3">
-        <v>0.9970883418525184</v>
+        <v>0.958527777176755</v>
       </c>
       <c r="Q3">
-        <v>0.9970883418525184</v>
+        <v>0.958527777176755</v>
       </c>
       <c r="R3">
-        <v>1.001942817920375</v>
+        <v>0.9650303171512989</v>
       </c>
       <c r="S3">
-        <v>1.001942817920375</v>
+        <v>0.9650303171512989</v>
       </c>
       <c r="T3">
-        <v>0.9982237247649325</v>
+        <v>1.011238075597263</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.010734741634625</v>
+        <v>1.252001787771156</v>
       </c>
       <c r="D4">
-        <v>0.9726592396014222</v>
+        <v>0.8760289419166943</v>
       </c>
       <c r="E4">
-        <v>1.031677234039843</v>
+        <v>0.9833352545574016</v>
       </c>
       <c r="F4">
-        <v>1.01308062039603</v>
+        <v>1.049505319591871</v>
       </c>
       <c r="G4">
-        <v>0.9455176555206817</v>
+        <v>0.8247765630026058</v>
       </c>
       <c r="H4">
-        <v>1.005584259312403</v>
+        <v>1.07718630813828</v>
       </c>
       <c r="I4">
-        <v>1.031677234039843</v>
+        <v>0.9833352545574016</v>
       </c>
       <c r="J4">
-        <v>0.9455176555206817</v>
+        <v>0.8247765630026058</v>
       </c>
       <c r="K4">
-        <v>1.031677234039843</v>
+        <v>0.9833352545574016</v>
       </c>
       <c r="L4">
-        <v>1.005584259312403</v>
+        <v>1.07718630813828</v>
       </c>
       <c r="M4">
-        <v>0.9755509574165423</v>
+        <v>0.9509814355704428</v>
       </c>
       <c r="N4">
-        <v>0.9755509574165423</v>
+        <v>0.9509814355704428</v>
       </c>
       <c r="O4">
-        <v>0.9745870514781689</v>
+        <v>0.9259972710191934</v>
       </c>
       <c r="P4">
-        <v>0.994259716290976</v>
+        <v>0.961766041899429</v>
       </c>
       <c r="Q4">
-        <v>0.994259716290976</v>
+        <v>0.961766041899429</v>
       </c>
       <c r="R4">
-        <v>1.003614095728193</v>
+        <v>0.9671583450639222</v>
       </c>
       <c r="S4">
-        <v>1.003614095728193</v>
+        <v>0.9671583450639222</v>
       </c>
       <c r="T4">
-        <v>0.9965422917508343</v>
+        <v>1.010472362496335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.022325121962063</v>
+        <v>1.314361652102429</v>
       </c>
       <c r="D5">
-        <v>0.9475886826043551</v>
+        <v>0.8423600736657696</v>
       </c>
       <c r="E5">
-        <v>1.059354052817176</v>
+        <v>0.9864468281401618</v>
       </c>
       <c r="F5">
-        <v>1.024939178161619</v>
+        <v>1.062783591590297</v>
       </c>
       <c r="G5">
-        <v>0.8969245190905412</v>
+        <v>0.7756423912560646</v>
       </c>
       <c r="H5">
-        <v>1.011101819701415</v>
+        <v>1.094961684447441</v>
       </c>
       <c r="I5">
-        <v>1.059354052817176</v>
+        <v>0.9864468281401618</v>
       </c>
       <c r="J5">
-        <v>0.8969245190905412</v>
+        <v>0.7756423912560646</v>
       </c>
       <c r="K5">
-        <v>1.059354052817176</v>
+        <v>0.9864468281401618</v>
       </c>
       <c r="L5">
-        <v>1.011101819701415</v>
+        <v>1.094961684447441</v>
       </c>
       <c r="M5">
-        <v>0.9540131693959779</v>
+        <v>0.9353020378517529</v>
       </c>
       <c r="N5">
-        <v>0.9540131693959779</v>
+        <v>0.9353020378517529</v>
       </c>
       <c r="O5">
-        <v>0.9518716737987702</v>
+        <v>0.9043213831230918</v>
       </c>
       <c r="P5">
-        <v>0.9891267972030441</v>
+        <v>0.9523503012812226</v>
       </c>
       <c r="Q5">
-        <v>0.9891267972030441</v>
+        <v>0.9523503012812226</v>
       </c>
       <c r="R5">
-        <v>1.006683611106577</v>
+        <v>0.9608744329959573</v>
       </c>
       <c r="S5">
-        <v>1.006683611106577</v>
+        <v>0.9608744329959573</v>
       </c>
       <c r="T5">
-        <v>0.9937055623895281</v>
+        <v>1.01275937020036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.032591385034919</v>
+        <v>1.353288803409093</v>
       </c>
       <c r="D6">
-        <v>0.9224829197045707</v>
+        <v>0.8217506950568182</v>
       </c>
       <c r="E6">
-        <v>1.086473725676809</v>
+        <v>0.9877830492613631</v>
       </c>
       <c r="F6">
-        <v>1.036893549348306</v>
+        <v>1.070869662670454</v>
       </c>
       <c r="G6">
-        <v>0.8503054731578428</v>
+        <v>0.7458448941022725</v>
       </c>
       <c r="H6">
-        <v>1.017217528938717</v>
+        <v>1.106020615795454</v>
       </c>
       <c r="I6">
-        <v>1.086473725676809</v>
+        <v>0.9877830492613631</v>
       </c>
       <c r="J6">
-        <v>0.8503054731578428</v>
+        <v>0.7458448941022725</v>
       </c>
       <c r="K6">
-        <v>1.086473725676809</v>
+        <v>0.9877830492613631</v>
       </c>
       <c r="L6">
-        <v>1.017217528938717</v>
+        <v>1.106020615795454</v>
       </c>
       <c r="M6">
-        <v>0.93376150104828</v>
+        <v>0.925932754948863</v>
       </c>
       <c r="N6">
-        <v>0.93376150104828</v>
+        <v>0.925932754948863</v>
       </c>
       <c r="O6">
-        <v>0.9300019739337103</v>
+        <v>0.8912054016515146</v>
       </c>
       <c r="P6">
-        <v>0.9846655759244562</v>
+        <v>0.9465495197196964</v>
       </c>
       <c r="Q6">
-        <v>0.9846655759244562</v>
+        <v>0.9465495197196964</v>
       </c>
       <c r="R6">
-        <v>1.010117613362544</v>
+        <v>0.9568579021051131</v>
       </c>
       <c r="S6">
-        <v>1.010117613362544</v>
+        <v>0.9568579021051131</v>
       </c>
       <c r="T6">
-        <v>0.9909940969768609</v>
+        <v>1.014259620049242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00210738506561</v>
+        <v>1.138392413983463</v>
       </c>
       <c r="D7">
-        <v>0.9990904683184813</v>
+        <v>0.9233278591735247</v>
       </c>
       <c r="E7">
-        <v>0.9997331007781609</v>
+        <v>1.000120195242034</v>
       </c>
       <c r="F7">
-        <v>1.000340618328413</v>
+        <v>1.031724487861303</v>
       </c>
       <c r="G7">
-        <v>0.998824782848407</v>
+        <v>0.8848899161065025</v>
       </c>
       <c r="H7">
-        <v>1.000598062031696</v>
+        <v>1.045886615951411</v>
       </c>
       <c r="I7">
-        <v>0.9997331007781609</v>
+        <v>1.000120195242034</v>
       </c>
       <c r="J7">
-        <v>0.998824782848407</v>
+        <v>0.8848899161065025</v>
       </c>
       <c r="K7">
-        <v>0.9997331007781609</v>
+        <v>1.000120195242034</v>
       </c>
       <c r="L7">
-        <v>1.000598062031696</v>
+        <v>1.045886615951411</v>
       </c>
       <c r="M7">
-        <v>0.9997114224400514</v>
+        <v>0.9653882660289567</v>
       </c>
       <c r="N7">
-        <v>0.9997114224400514</v>
+        <v>0.9653882660289567</v>
       </c>
       <c r="O7">
-        <v>0.9995044377328614</v>
+        <v>0.9513681304104793</v>
       </c>
       <c r="P7">
-        <v>0.9997186485527546</v>
+        <v>0.9769655757666492</v>
       </c>
       <c r="Q7">
-        <v>0.9997186485527546</v>
+        <v>0.9769655757666492</v>
       </c>
       <c r="R7">
-        <v>0.9997222616091062</v>
+        <v>0.9827542306354955</v>
       </c>
       <c r="S7">
-        <v>0.9997222616091062</v>
+        <v>0.9827542306354955</v>
       </c>
       <c r="T7">
-        <v>1.000115736228461</v>
+        <v>1.004056914719706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.005159526707476</v>
+        <v>1.144943106969195</v>
       </c>
       <c r="D8">
-        <v>0.9976691628951723</v>
+        <v>0.9203713076151725</v>
       </c>
       <c r="E8">
-        <v>0.9994773760579733</v>
+        <v>0.9995923433707575</v>
       </c>
       <c r="F8">
-        <v>1.000889434132372</v>
+        <v>1.032829687895999</v>
       </c>
       <c r="G8">
-        <v>0.9968968185729949</v>
+        <v>0.8809872934933115</v>
       </c>
       <c r="H8">
-        <v>1.001486995335794</v>
+        <v>1.047693654066236</v>
       </c>
       <c r="I8">
-        <v>0.9994773760579733</v>
+        <v>0.9995923433707575</v>
       </c>
       <c r="J8">
-        <v>0.9968968185729949</v>
+        <v>0.8809872934933115</v>
       </c>
       <c r="K8">
-        <v>0.9994773760579733</v>
+        <v>0.9995923433707575</v>
       </c>
       <c r="L8">
-        <v>1.001486995335794</v>
+        <v>1.047693654066236</v>
       </c>
       <c r="M8">
-        <v>0.9991919069543946</v>
+        <v>0.9643404737797736</v>
       </c>
       <c r="N8">
-        <v>0.9991919069543946</v>
+        <v>0.9643404737797736</v>
       </c>
       <c r="O8">
-        <v>0.9986843256013205</v>
+        <v>0.94968408505824</v>
       </c>
       <c r="P8">
-        <v>0.9992870633222543</v>
+        <v>0.9760910969767682</v>
       </c>
       <c r="Q8">
-        <v>0.9992870633222543</v>
+        <v>0.9760910969767682</v>
       </c>
       <c r="R8">
-        <v>0.999334641506184</v>
+        <v>0.9819664085752655</v>
       </c>
       <c r="S8">
-        <v>0.999334641506184</v>
+        <v>0.9819664085752655</v>
       </c>
       <c r="T8">
-        <v>1.000263218950297</v>
+        <v>1.004402898901779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.006718172830049</v>
+        <v>1.1516884171077</v>
       </c>
       <c r="D9">
-        <v>0.9967029531072729</v>
+        <v>0.917921214573385</v>
       </c>
       <c r="E9">
-        <v>0.9996482809467907</v>
+        <v>0.9982528916645992</v>
       </c>
       <c r="F9">
-        <v>1.001295998703567</v>
+        <v>1.033661616751511</v>
       </c>
       <c r="G9">
-        <v>0.9953981197080701</v>
+        <v>0.8782359339156507</v>
       </c>
       <c r="H9">
-        <v>1.001997517425149</v>
+        <v>1.049447292617884</v>
       </c>
       <c r="I9">
-        <v>0.9996482809467907</v>
+        <v>0.9982528916645992</v>
       </c>
       <c r="J9">
-        <v>0.9953981197080701</v>
+        <v>0.8782359339156507</v>
       </c>
       <c r="K9">
-        <v>0.9996482809467907</v>
+        <v>0.9982528916645992</v>
       </c>
       <c r="L9">
-        <v>1.001997517425149</v>
+        <v>1.049447292617884</v>
       </c>
       <c r="M9">
-        <v>0.9986978185666096</v>
+        <v>0.9638416132667672</v>
       </c>
       <c r="N9">
-        <v>0.9986978185666096</v>
+        <v>0.9638416132667672</v>
       </c>
       <c r="O9">
-        <v>0.9980328634134974</v>
+        <v>0.9485348137023065</v>
       </c>
       <c r="P9">
-        <v>0.9990146393600033</v>
+        <v>0.9753120393993778</v>
       </c>
       <c r="Q9">
-        <v>0.9990146393600033</v>
+        <v>0.9753120393993778</v>
       </c>
       <c r="R9">
-        <v>0.9991730497567002</v>
+        <v>0.9810472524656833</v>
       </c>
       <c r="S9">
-        <v>0.9991730497567002</v>
+        <v>0.9810472524656833</v>
       </c>
       <c r="T9">
-        <v>1.00029350712015</v>
+        <v>1.004867894438455</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.015077157189243</v>
+        <v>1.162520779217539</v>
       </c>
       <c r="D10">
-        <v>0.9929305053672144</v>
+        <v>0.9118287203236504</v>
       </c>
       <c r="E10">
-        <v>0.9988182310966298</v>
+        <v>0.9994652226925416</v>
       </c>
       <c r="F10">
-        <v>1.00273128981002</v>
+        <v>1.036036257384124</v>
       </c>
       <c r="G10">
-        <v>0.9903763491177056</v>
+        <v>0.8692036812320019</v>
       </c>
       <c r="H10">
-        <v>1.004395699838794</v>
+        <v>1.052396663320146</v>
       </c>
       <c r="I10">
-        <v>0.9988182310966298</v>
+        <v>0.9994652226925416</v>
       </c>
       <c r="J10">
-        <v>0.9903763491177056</v>
+        <v>0.8692036812320019</v>
       </c>
       <c r="K10">
-        <v>0.9988182310966298</v>
+        <v>0.9994652226925416</v>
       </c>
       <c r="L10">
-        <v>1.004395699838794</v>
+        <v>1.052396663320146</v>
       </c>
       <c r="M10">
-        <v>0.99738602447825</v>
+        <v>0.9608001722760739</v>
       </c>
       <c r="N10">
-        <v>0.99738602447825</v>
+        <v>0.9608001722760739</v>
       </c>
       <c r="O10">
-        <v>0.9959008514412382</v>
+        <v>0.9444763549585994</v>
       </c>
       <c r="P10">
-        <v>0.9978634266843766</v>
+        <v>0.9736885224148965</v>
       </c>
       <c r="Q10">
-        <v>0.9978634266843766</v>
+        <v>0.9736885224148965</v>
       </c>
       <c r="R10">
-        <v>0.9981021277874399</v>
+        <v>0.9801326974843078</v>
       </c>
       <c r="S10">
-        <v>0.9981021277874399</v>
+        <v>0.9801326974843078</v>
       </c>
       <c r="T10">
-        <v>1.000721538736601</v>
+        <v>1.005241887361667</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.0237629402629</v>
+        <v>1.006354801698406</v>
       </c>
       <c r="D11">
-        <v>0.9881915459096451</v>
+        <v>0.984600039663483</v>
       </c>
       <c r="E11">
-        <v>0.9989865255630518</v>
+        <v>1.017427784520411</v>
       </c>
       <c r="F11">
-        <v>1.004653877358743</v>
+        <v>1.007402564005827</v>
       </c>
       <c r="G11">
-        <v>0.983415540190979</v>
+        <v>0.969078370862234</v>
       </c>
       <c r="H11">
-        <v>1.007072634820444</v>
+        <v>1.00333811832708</v>
       </c>
       <c r="I11">
-        <v>0.9989865255630518</v>
+        <v>1.017427784520411</v>
       </c>
       <c r="J11">
-        <v>0.983415540190979</v>
+        <v>0.969078370862234</v>
       </c>
       <c r="K11">
-        <v>0.9989865255630518</v>
+        <v>1.017427784520411</v>
       </c>
       <c r="L11">
-        <v>1.007072634820444</v>
+        <v>1.00333811832708</v>
       </c>
       <c r="M11">
-        <v>0.9952440875057116</v>
+        <v>0.9862082445946572</v>
       </c>
       <c r="N11">
-        <v>0.9952440875057116</v>
+        <v>0.9862082445946572</v>
       </c>
       <c r="O11">
-        <v>0.9928932403070228</v>
+        <v>0.9856721762842658</v>
       </c>
       <c r="P11">
-        <v>0.9964915668581583</v>
+        <v>0.9966147579032417</v>
       </c>
       <c r="Q11">
-        <v>0.9964915668581583</v>
+        <v>0.9966147579032416</v>
       </c>
       <c r="R11">
-        <v>0.9971153065343816</v>
+        <v>1.001818014557534</v>
       </c>
       <c r="S11">
-        <v>0.9971153065343816</v>
+        <v>1.001818014557534</v>
       </c>
       <c r="T11">
-        <v>1.001013844017627</v>
+        <v>0.9980336131795734</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.673723764878202</v>
+        <v>1.003340192125306</v>
       </c>
       <c r="D12">
-        <v>1.102813391086706</v>
+        <v>0.9926465349317792</v>
       </c>
       <c r="E12">
-        <v>1.127529931029186</v>
+        <v>1.008234058877629</v>
       </c>
       <c r="F12">
-        <v>0.9631475760892617</v>
+        <v>1.003488761569379</v>
       </c>
       <c r="G12">
-        <v>1.080266239210386</v>
+        <v>0.9854671993872403</v>
       </c>
       <c r="H12">
-        <v>0.8953109169258399</v>
+        <v>1.001578716538293</v>
       </c>
       <c r="I12">
-        <v>1.127529931029186</v>
+        <v>1.008234058877629</v>
       </c>
       <c r="J12">
-        <v>1.080266239210386</v>
+        <v>0.9854671993872403</v>
       </c>
       <c r="K12">
-        <v>1.127529931029186</v>
+        <v>1.008234058877629</v>
       </c>
       <c r="L12">
-        <v>0.8953109169258399</v>
+        <v>1.001578716538293</v>
       </c>
       <c r="M12">
-        <v>0.9877885780681128</v>
+        <v>0.9935229579627669</v>
       </c>
       <c r="N12">
-        <v>0.9877885780681128</v>
+        <v>0.9935229579627669</v>
       </c>
       <c r="O12">
-        <v>1.026130182407644</v>
+        <v>0.9932308169524378</v>
       </c>
       <c r="P12">
-        <v>1.034369029055137</v>
+        <v>0.9984266582677209</v>
       </c>
       <c r="Q12">
-        <v>1.034369029055137</v>
+        <v>0.9984266582677209</v>
       </c>
       <c r="R12">
-        <v>1.057659254548649</v>
+        <v>1.000878508420198</v>
       </c>
       <c r="S12">
-        <v>1.057659254548649</v>
+        <v>1.000878508420198</v>
       </c>
       <c r="T12">
-        <v>0.9737986365365967</v>
+        <v>0.9991259105716045</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.047251050527995</v>
+        <v>1.008964821403157</v>
       </c>
       <c r="D13">
-        <v>1.027868909376407</v>
+        <v>0.9750697715395333</v>
       </c>
       <c r="E13">
-        <v>0.913972683505371</v>
+        <v>1.029843074930399</v>
       </c>
       <c r="F13">
-        <v>0.9830813091344336</v>
+        <v>1.011921530378032</v>
       </c>
       <c r="G13">
-        <v>1.105870336823763</v>
+        <v>0.9500806894683245</v>
       </c>
       <c r="H13">
-        <v>1.011600528441368</v>
+        <v>1.004695668231612</v>
       </c>
       <c r="I13">
-        <v>0.913972683505371</v>
+        <v>1.029843074930399</v>
       </c>
       <c r="J13">
-        <v>1.105870336823763</v>
+        <v>0.9500806894683245</v>
       </c>
       <c r="K13">
-        <v>0.913972683505371</v>
+        <v>1.029843074930399</v>
       </c>
       <c r="L13">
-        <v>1.011600528441368</v>
+        <v>1.004695668231612</v>
       </c>
       <c r="M13">
-        <v>1.058735432632566</v>
+        <v>0.9773881788499682</v>
       </c>
       <c r="N13">
-        <v>1.058735432632566</v>
+        <v>0.9773881788499682</v>
       </c>
       <c r="O13">
-        <v>1.048446591547179</v>
+        <v>0.9766153764131565</v>
       </c>
       <c r="P13">
-        <v>1.010481182923501</v>
+        <v>0.9948731442101119</v>
       </c>
       <c r="Q13">
-        <v>1.010481182923501</v>
+        <v>0.9948731442101119</v>
       </c>
       <c r="R13">
-        <v>0.9863540580689685</v>
+        <v>1.003615626890184</v>
       </c>
       <c r="S13">
-        <v>0.9863540580689685</v>
+        <v>1.003615626890184</v>
       </c>
       <c r="T13">
-        <v>1.014940802968223</v>
+        <v>0.9967625926585096</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6737285090612065</v>
+        <v>1.017349262717953</v>
       </c>
       <c r="D14">
-        <v>1.102807217321749</v>
+        <v>0.9606409219074438</v>
       </c>
       <c r="E14">
-        <v>1.127533510704577</v>
+        <v>1.04430613273847</v>
       </c>
       <c r="F14">
-        <v>0.9631511317995493</v>
+        <v>1.018717752014313</v>
       </c>
       <c r="G14">
-        <v>1.080251995291118</v>
+        <v>0.9222211370026623</v>
       </c>
       <c r="H14">
-        <v>0.8953132396605803</v>
+        <v>1.008393913662102</v>
       </c>
       <c r="I14">
-        <v>1.127533510704577</v>
+        <v>1.04430613273847</v>
       </c>
       <c r="J14">
-        <v>1.080251995291118</v>
+        <v>0.9222211370026623</v>
       </c>
       <c r="K14">
-        <v>1.127533510704577</v>
+        <v>1.04430613273847</v>
       </c>
       <c r="L14">
-        <v>0.8953132396605803</v>
+        <v>1.008393913662102</v>
       </c>
       <c r="M14">
-        <v>0.9877826174758491</v>
+        <v>0.965307525332382</v>
       </c>
       <c r="N14">
-        <v>0.9877826174758491</v>
+        <v>0.965307525332382</v>
       </c>
       <c r="O14">
-        <v>1.026124150757816</v>
+        <v>0.9637519908574026</v>
       </c>
       <c r="P14">
-        <v>1.034366248552092</v>
+        <v>0.9916403944677444</v>
       </c>
       <c r="Q14">
-        <v>1.034366248552091</v>
+        <v>0.9916403944677444</v>
       </c>
       <c r="R14">
-        <v>1.057658064090213</v>
+        <v>1.004806829035426</v>
       </c>
       <c r="S14">
-        <v>1.057658064090213</v>
+        <v>1.004806829035426</v>
       </c>
       <c r="T14">
-        <v>0.9737976006397965</v>
+        <v>0.9952715200071571</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.047254677975845</v>
+        <v>1.005490598741494</v>
       </c>
       <c r="D15">
-        <v>1.027866980765599</v>
+        <v>0.9858004410429821</v>
       </c>
       <c r="E15">
-        <v>0.9139735157150428</v>
+        <v>1.016506246123946</v>
       </c>
       <c r="F15">
-        <v>0.9830818209775607</v>
+        <v>1.006786283247563</v>
       </c>
       <c r="G15">
-        <v>1.105868676006457</v>
+        <v>0.9718900977339328</v>
       </c>
       <c r="H15">
-        <v>1.01160124971113</v>
+        <v>1.002868681699677</v>
       </c>
       <c r="I15">
-        <v>0.9139735157150428</v>
+        <v>1.016506246123946</v>
       </c>
       <c r="J15">
-        <v>1.105868676006457</v>
+        <v>0.9718900977339328</v>
       </c>
       <c r="K15">
-        <v>0.9139735157150428</v>
+        <v>1.016506246123946</v>
       </c>
       <c r="L15">
-        <v>1.01160124971113</v>
+        <v>1.002868681699677</v>
       </c>
       <c r="M15">
-        <v>1.058734962858793</v>
+        <v>0.9873793897168046</v>
       </c>
       <c r="N15">
-        <v>1.058734962858793</v>
+        <v>0.9873793897168046</v>
       </c>
       <c r="O15">
-        <v>1.048445635494395</v>
+        <v>0.9868530734921972</v>
       </c>
       <c r="P15">
-        <v>1.01048114714421</v>
+        <v>0.9970883418525184</v>
       </c>
       <c r="Q15">
-        <v>1.01048114714421</v>
+        <v>0.9970883418525184</v>
       </c>
       <c r="R15">
-        <v>0.9863542392869182</v>
+        <v>1.001942817920375</v>
       </c>
       <c r="S15">
-        <v>0.9863542392869182</v>
+        <v>1.001942817920375</v>
       </c>
       <c r="T15">
-        <v>1.014941153525273</v>
+        <v>0.9982237247649325</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.133489983960954</v>
+        <v>1.010734741634625</v>
       </c>
       <c r="D16">
-        <v>0.725675739557003</v>
+        <v>0.9726592396014222</v>
       </c>
       <c r="E16">
-        <v>1.296847562491805</v>
+        <v>1.031677234039843</v>
       </c>
       <c r="F16">
-        <v>1.130325742073575</v>
+        <v>1.01308062039603</v>
       </c>
       <c r="G16">
-        <v>0.4597807779058907</v>
+        <v>0.9455176555206817</v>
       </c>
       <c r="H16">
-        <v>1.063018477493221</v>
+        <v>1.005584259312403</v>
       </c>
       <c r="I16">
-        <v>1.296847562491805</v>
+        <v>1.031677234039843</v>
       </c>
       <c r="J16">
-        <v>0.4597807779058907</v>
+        <v>0.9455176555206817</v>
       </c>
       <c r="K16">
-        <v>1.296847562491805</v>
+        <v>1.031677234039843</v>
       </c>
       <c r="L16">
-        <v>1.063018477493221</v>
+        <v>1.005584259312403</v>
       </c>
       <c r="M16">
-        <v>0.761399627699556</v>
+        <v>0.9755509574165423</v>
       </c>
       <c r="N16">
-        <v>0.761399627699556</v>
+        <v>0.9755509574165423</v>
       </c>
       <c r="O16">
-        <v>0.7494916649853717</v>
+        <v>0.9745870514781689</v>
       </c>
       <c r="P16">
-        <v>0.9398822726303058</v>
+        <v>0.994259716290976</v>
       </c>
       <c r="Q16">
-        <v>0.9398822726303058</v>
+        <v>0.994259716290976</v>
       </c>
       <c r="R16">
-        <v>1.029123595095681</v>
+        <v>1.003614095728193</v>
       </c>
       <c r="S16">
-        <v>1.029123595095681</v>
+        <v>1.003614095728193</v>
       </c>
       <c r="T16">
-        <v>0.9681897139137415</v>
+        <v>0.9965422917508343</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.167165943480523</v>
+        <v>1.022325121962063</v>
       </c>
       <c r="D17">
-        <v>0.7788351958832949</v>
+        <v>0.9475886826043551</v>
       </c>
       <c r="E17">
-        <v>1.192209921668154</v>
+        <v>1.059354052817176</v>
       </c>
       <c r="F17">
-        <v>1.102196055043425</v>
+        <v>1.024939178161619</v>
       </c>
       <c r="G17">
-        <v>0.5858145583056142</v>
+        <v>0.8969245190905412</v>
       </c>
       <c r="H17">
-        <v>1.066089597427112</v>
+        <v>1.011101819701415</v>
       </c>
       <c r="I17">
-        <v>1.192209921668154</v>
+        <v>1.059354052817176</v>
       </c>
       <c r="J17">
-        <v>0.5858145583056142</v>
+        <v>0.8969245190905412</v>
       </c>
       <c r="K17">
-        <v>1.192209921668154</v>
+        <v>1.059354052817176</v>
       </c>
       <c r="L17">
-        <v>1.066089597427112</v>
+        <v>1.011101819701415</v>
       </c>
       <c r="M17">
-        <v>0.8259520778663633</v>
+        <v>0.9540131693959779</v>
       </c>
       <c r="N17">
-        <v>0.8259520778663633</v>
+        <v>0.9540131693959779</v>
       </c>
       <c r="O17">
-        <v>0.8102464505386738</v>
+        <v>0.9518716737987702</v>
       </c>
       <c r="P17">
-        <v>0.9480380258002935</v>
+        <v>0.9891267972030441</v>
       </c>
       <c r="Q17">
-        <v>0.9480380258002935</v>
+        <v>0.9891267972030441</v>
       </c>
       <c r="R17">
-        <v>1.009080999767259</v>
+        <v>1.006683611106577</v>
       </c>
       <c r="S17">
-        <v>1.009080999767259</v>
+        <v>1.006683611106577</v>
       </c>
       <c r="T17">
-        <v>0.9820518786346873</v>
+        <v>0.9937055623895281</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.231897955297974</v>
+        <v>1.032591385034919</v>
       </c>
       <c r="D18">
-        <v>0.8855535562937699</v>
+        <v>0.9224829197045707</v>
       </c>
       <c r="E18">
-        <v>0.9843199285201826</v>
+        <v>1.086473725676809</v>
       </c>
       <c r="F18">
-        <v>1.045879522937275</v>
+        <v>1.036893549348306</v>
       </c>
       <c r="G18">
-        <v>0.83777977152336</v>
+        <v>0.8503054731578428</v>
       </c>
       <c r="H18">
-        <v>1.071577907323612</v>
+        <v>1.017217528938717</v>
       </c>
       <c r="I18">
-        <v>0.9843199285201826</v>
+        <v>1.086473725676809</v>
       </c>
       <c r="J18">
-        <v>0.83777977152336</v>
+        <v>0.8503054731578428</v>
       </c>
       <c r="K18">
-        <v>0.9843199285201826</v>
+        <v>1.086473725676809</v>
       </c>
       <c r="L18">
-        <v>1.071577907323612</v>
+        <v>1.017217528938717</v>
       </c>
       <c r="M18">
-        <v>0.9546788394234857</v>
+        <v>0.93376150104828</v>
       </c>
       <c r="N18">
-        <v>0.9546788394234857</v>
+        <v>0.93376150104828</v>
       </c>
       <c r="O18">
-        <v>0.9316370783802471</v>
+        <v>0.9300019739337103</v>
       </c>
       <c r="P18">
-        <v>0.964559202455718</v>
+        <v>0.9846655759244562</v>
       </c>
       <c r="Q18">
-        <v>0.964559202455718</v>
+        <v>0.9846655759244562</v>
       </c>
       <c r="R18">
-        <v>0.9694993839718342</v>
+        <v>1.010117613362544</v>
       </c>
       <c r="S18">
-        <v>0.9694993839718342</v>
+        <v>1.010117613362544</v>
       </c>
       <c r="T18">
-        <v>1.009501440316029</v>
+        <v>0.9909940969768609</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.282762913117673</v>
+        <v>1.00210738506561</v>
       </c>
       <c r="D19">
-        <v>0.8755906469624388</v>
+        <v>0.9990904683184813</v>
       </c>
       <c r="E19">
-        <v>0.9623856227707707</v>
+        <v>0.9997331007781609</v>
       </c>
       <c r="F19">
-        <v>1.047301893860699</v>
+        <v>1.000340618328413</v>
       </c>
       <c r="G19">
-        <v>0.8442382465710164</v>
+        <v>0.998824782848407</v>
       </c>
       <c r="H19">
-        <v>1.082759035799924</v>
+        <v>1.000598062031696</v>
       </c>
       <c r="I19">
-        <v>0.9623856227707707</v>
+        <v>0.9997331007781609</v>
       </c>
       <c r="J19">
-        <v>0.8442382465710164</v>
+        <v>0.998824782848407</v>
       </c>
       <c r="K19">
-        <v>0.9623856227707707</v>
+        <v>0.9997331007781609</v>
       </c>
       <c r="L19">
-        <v>1.082759035799924</v>
+        <v>1.000598062031696</v>
       </c>
       <c r="M19">
-        <v>0.9634986411854702</v>
+        <v>0.9997114224400514</v>
       </c>
       <c r="N19">
-        <v>0.9634986411854702</v>
+        <v>0.9997114224400514</v>
       </c>
       <c r="O19">
-        <v>0.9341959764444597</v>
+        <v>0.9995044377328614</v>
       </c>
       <c r="P19">
-        <v>0.9631276350472371</v>
+        <v>0.9997186485527546</v>
       </c>
       <c r="Q19">
-        <v>0.9631276350472371</v>
+        <v>0.9997186485527546</v>
       </c>
       <c r="R19">
-        <v>0.9629421319781205</v>
+        <v>0.9997222616091062</v>
       </c>
       <c r="S19">
-        <v>0.9629421319781205</v>
+        <v>0.9997222616091062</v>
       </c>
       <c r="T19">
-        <v>1.015839726513754</v>
+        <v>1.000115736228461</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.001095832439562</v>
+        <v>1.005159526707476</v>
       </c>
       <c r="D20">
-        <v>1.000003427174073</v>
+        <v>0.9976691628951723</v>
       </c>
       <c r="E20">
-        <v>0.9991975785149171</v>
+        <v>0.9994773760579733</v>
       </c>
       <c r="F20">
-        <v>0.9999327913080522</v>
+        <v>1.000889434132372</v>
       </c>
       <c r="G20">
-        <v>1.000402571983614</v>
+        <v>0.9968968185729949</v>
       </c>
       <c r="H20">
-        <v>1.000247168299788</v>
+        <v>1.001486995335794</v>
       </c>
       <c r="I20">
-        <v>0.9991975785149171</v>
+        <v>0.9994773760579733</v>
       </c>
       <c r="J20">
-        <v>1.000402571983614</v>
+        <v>0.9968968185729949</v>
       </c>
       <c r="K20">
-        <v>0.9991975785149171</v>
+        <v>0.9994773760579733</v>
       </c>
       <c r="L20">
-        <v>1.000247168299788</v>
+        <v>1.001486995335794</v>
       </c>
       <c r="M20">
-        <v>1.000324870141701</v>
+        <v>0.9991919069543946</v>
       </c>
       <c r="N20">
-        <v>1.000324870141701</v>
+        <v>0.9991919069543946</v>
       </c>
       <c r="O20">
-        <v>1.000217722485825</v>
+        <v>0.9986843256013205</v>
       </c>
       <c r="P20">
-        <v>0.9999491062661066</v>
+        <v>0.9992870633222543</v>
       </c>
       <c r="Q20">
-        <v>0.9999491062661066</v>
+        <v>0.9992870633222543</v>
       </c>
       <c r="R20">
-        <v>0.9997612243283092</v>
+        <v>0.999334641506184</v>
       </c>
       <c r="S20">
-        <v>0.9997612243283092</v>
+        <v>0.999334641506184</v>
       </c>
       <c r="T20">
-        <v>1.000146561620001</v>
+        <v>1.000263218950297</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.001739214522223</v>
+        <v>1.006718172830049</v>
       </c>
       <c r="D21">
-        <v>0.9988549456753875</v>
+        <v>0.9967029531072729</v>
       </c>
       <c r="E21">
-        <v>1.000422824834236</v>
+        <v>0.9996482809467907</v>
       </c>
       <c r="F21">
-        <v>1.000476729666993</v>
+        <v>1.001295998703567</v>
       </c>
       <c r="G21">
-        <v>0.9981248686568673</v>
+        <v>0.9953981197080701</v>
       </c>
       <c r="H21">
-        <v>1.000490758278101</v>
+        <v>1.001997517425149</v>
       </c>
       <c r="I21">
-        <v>1.000422824834236</v>
+        <v>0.9996482809467907</v>
       </c>
       <c r="J21">
-        <v>0.9981248686568673</v>
+        <v>0.9953981197080701</v>
       </c>
       <c r="K21">
-        <v>1.000422824834236</v>
+        <v>0.9996482809467907</v>
       </c>
       <c r="L21">
-        <v>1.000490758278101</v>
+        <v>1.001997517425149</v>
       </c>
       <c r="M21">
-        <v>0.999307813467484</v>
+        <v>0.9986978185666096</v>
       </c>
       <c r="N21">
-        <v>0.999307813467484</v>
+        <v>0.9986978185666096</v>
       </c>
       <c r="O21">
-        <v>0.9991568575367852</v>
+        <v>0.9980328634134974</v>
       </c>
       <c r="P21">
-        <v>0.9996794839230682</v>
+        <v>0.9990146393600033</v>
       </c>
       <c r="Q21">
-        <v>0.9996794839230682</v>
+        <v>0.9990146393600033</v>
       </c>
       <c r="R21">
-        <v>0.9998653191508602</v>
+        <v>0.9991730497567002</v>
       </c>
       <c r="S21">
-        <v>0.9998653191508602</v>
+        <v>0.9991730497567002</v>
       </c>
       <c r="T21">
-        <v>1.000018223605635</v>
+        <v>1.00029350712015</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.002978492003536</v>
+        <v>1.015077157189243</v>
       </c>
       <c r="D22">
-        <v>0.9957163381542307</v>
+        <v>0.9929305053672144</v>
       </c>
       <c r="E22">
-        <v>1.004111720000526</v>
+        <v>0.9988182310966298</v>
       </c>
       <c r="F22">
-        <v>1.001948515838852</v>
+        <v>1.00273128981002</v>
       </c>
       <c r="G22">
-        <v>0.9917376887709259</v>
+        <v>0.9903763491177056</v>
       </c>
       <c r="H22">
-        <v>1.001186939068027</v>
+        <v>1.004395699838794</v>
       </c>
       <c r="I22">
-        <v>1.004111720000526</v>
+        <v>0.9988182310966298</v>
       </c>
       <c r="J22">
-        <v>0.9917376887709259</v>
+        <v>0.9903763491177056</v>
       </c>
       <c r="K22">
-        <v>1.004111720000526</v>
+        <v>0.9988182310966298</v>
       </c>
       <c r="L22">
-        <v>1.001186939068027</v>
+        <v>1.004395699838794</v>
       </c>
       <c r="M22">
-        <v>0.9964623139194764</v>
+        <v>0.99738602447825</v>
       </c>
       <c r="N22">
-        <v>0.9964623139194764</v>
+        <v>0.99738602447825</v>
       </c>
       <c r="O22">
-        <v>0.9962136553310611</v>
+        <v>0.9959008514412382</v>
       </c>
       <c r="P22">
-        <v>0.9990121159464929</v>
+        <v>0.9978634266843766</v>
       </c>
       <c r="Q22">
-        <v>0.9990121159464929</v>
+        <v>0.9978634266843766</v>
       </c>
       <c r="R22">
-        <v>1.000287016960001</v>
+        <v>0.9981021277874399</v>
       </c>
       <c r="S22">
-        <v>1.000287016960001</v>
+        <v>0.9981021277874399</v>
       </c>
       <c r="T22">
-        <v>0.9996132823060163</v>
+        <v>1.000721538736601</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.0237629402629</v>
+      </c>
+      <c r="D23">
+        <v>0.9881915459096451</v>
+      </c>
+      <c r="E23">
+        <v>0.9989865255630518</v>
+      </c>
+      <c r="F23">
+        <v>1.004653877358743</v>
+      </c>
+      <c r="G23">
+        <v>0.983415540190979</v>
+      </c>
+      <c r="H23">
+        <v>1.007072634820444</v>
+      </c>
+      <c r="I23">
+        <v>0.9989865255630518</v>
+      </c>
+      <c r="J23">
+        <v>0.983415540190979</v>
+      </c>
+      <c r="K23">
+        <v>0.9989865255630518</v>
+      </c>
+      <c r="L23">
+        <v>1.007072634820444</v>
+      </c>
+      <c r="M23">
+        <v>0.9952440875057116</v>
+      </c>
+      <c r="N23">
+        <v>0.9952440875057116</v>
+      </c>
+      <c r="O23">
+        <v>0.9928932403070228</v>
+      </c>
+      <c r="P23">
+        <v>0.9964915668581583</v>
+      </c>
+      <c r="Q23">
+        <v>0.9964915668581583</v>
+      </c>
+      <c r="R23">
+        <v>0.9971153065343816</v>
+      </c>
+      <c r="S23">
+        <v>0.9971153065343816</v>
+      </c>
+      <c r="T23">
+        <v>1.001013844017627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.673723764878202</v>
+      </c>
+      <c r="D24">
+        <v>1.102813391086706</v>
+      </c>
+      <c r="E24">
+        <v>1.127529931029186</v>
+      </c>
+      <c r="F24">
+        <v>0.9631475760892617</v>
+      </c>
+      <c r="G24">
+        <v>1.080266239210386</v>
+      </c>
+      <c r="H24">
+        <v>0.8953109169258399</v>
+      </c>
+      <c r="I24">
+        <v>1.127529931029186</v>
+      </c>
+      <c r="J24">
+        <v>1.080266239210386</v>
+      </c>
+      <c r="K24">
+        <v>1.127529931029186</v>
+      </c>
+      <c r="L24">
+        <v>0.8953109169258399</v>
+      </c>
+      <c r="M24">
+        <v>0.9877885780681128</v>
+      </c>
+      <c r="N24">
+        <v>0.9877885780681128</v>
+      </c>
+      <c r="O24">
+        <v>1.026130182407644</v>
+      </c>
+      <c r="P24">
+        <v>1.034369029055137</v>
+      </c>
+      <c r="Q24">
+        <v>1.034369029055137</v>
+      </c>
+      <c r="R24">
+        <v>1.057659254548649</v>
+      </c>
+      <c r="S24">
+        <v>1.057659254548649</v>
+      </c>
+      <c r="T24">
+        <v>0.9737986365365967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.047251050527995</v>
+      </c>
+      <c r="D25">
+        <v>1.027868909376407</v>
+      </c>
+      <c r="E25">
+        <v>0.913972683505371</v>
+      </c>
+      <c r="F25">
+        <v>0.9830813091344336</v>
+      </c>
+      <c r="G25">
+        <v>1.105870336823763</v>
+      </c>
+      <c r="H25">
+        <v>1.011600528441368</v>
+      </c>
+      <c r="I25">
+        <v>0.913972683505371</v>
+      </c>
+      <c r="J25">
+        <v>1.105870336823763</v>
+      </c>
+      <c r="K25">
+        <v>0.913972683505371</v>
+      </c>
+      <c r="L25">
+        <v>1.011600528441368</v>
+      </c>
+      <c r="M25">
+        <v>1.058735432632566</v>
+      </c>
+      <c r="N25">
+        <v>1.058735432632566</v>
+      </c>
+      <c r="O25">
+        <v>1.048446591547179</v>
+      </c>
+      <c r="P25">
+        <v>1.010481182923501</v>
+      </c>
+      <c r="Q25">
+        <v>1.010481182923501</v>
+      </c>
+      <c r="R25">
+        <v>0.9863540580689685</v>
+      </c>
+      <c r="S25">
+        <v>0.9863540580689685</v>
+      </c>
+      <c r="T25">
+        <v>1.014940802968223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.6737285090612065</v>
+      </c>
+      <c r="D26">
+        <v>1.102807217321749</v>
+      </c>
+      <c r="E26">
+        <v>1.127533510704577</v>
+      </c>
+      <c r="F26">
+        <v>0.9631511317995493</v>
+      </c>
+      <c r="G26">
+        <v>1.080251995291118</v>
+      </c>
+      <c r="H26">
+        <v>0.8953132396605803</v>
+      </c>
+      <c r="I26">
+        <v>1.127533510704577</v>
+      </c>
+      <c r="J26">
+        <v>1.080251995291118</v>
+      </c>
+      <c r="K26">
+        <v>1.127533510704577</v>
+      </c>
+      <c r="L26">
+        <v>0.8953132396605803</v>
+      </c>
+      <c r="M26">
+        <v>0.9877826174758491</v>
+      </c>
+      <c r="N26">
+        <v>0.9877826174758491</v>
+      </c>
+      <c r="O26">
+        <v>1.026124150757816</v>
+      </c>
+      <c r="P26">
+        <v>1.034366248552092</v>
+      </c>
+      <c r="Q26">
+        <v>1.034366248552091</v>
+      </c>
+      <c r="R26">
+        <v>1.057658064090213</v>
+      </c>
+      <c r="S26">
+        <v>1.057658064090213</v>
+      </c>
+      <c r="T26">
+        <v>0.9737976006397965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.047254677975845</v>
+      </c>
+      <c r="D27">
+        <v>1.027866980765599</v>
+      </c>
+      <c r="E27">
+        <v>0.9139735157150428</v>
+      </c>
+      <c r="F27">
+        <v>0.9830818209775607</v>
+      </c>
+      <c r="G27">
+        <v>1.105868676006457</v>
+      </c>
+      <c r="H27">
+        <v>1.01160124971113</v>
+      </c>
+      <c r="I27">
+        <v>0.9139735157150428</v>
+      </c>
+      <c r="J27">
+        <v>1.105868676006457</v>
+      </c>
+      <c r="K27">
+        <v>0.9139735157150428</v>
+      </c>
+      <c r="L27">
+        <v>1.01160124971113</v>
+      </c>
+      <c r="M27">
+        <v>1.058734962858793</v>
+      </c>
+      <c r="N27">
+        <v>1.058734962858793</v>
+      </c>
+      <c r="O27">
+        <v>1.048445635494395</v>
+      </c>
+      <c r="P27">
+        <v>1.01048114714421</v>
+      </c>
+      <c r="Q27">
+        <v>1.01048114714421</v>
+      </c>
+      <c r="R27">
+        <v>0.9863542392869182</v>
+      </c>
+      <c r="S27">
+        <v>0.9863542392869182</v>
+      </c>
+      <c r="T27">
+        <v>1.014941153525273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.133489983960954</v>
+      </c>
+      <c r="D28">
+        <v>0.725675739557003</v>
+      </c>
+      <c r="E28">
+        <v>1.296847562491805</v>
+      </c>
+      <c r="F28">
+        <v>1.130325742073575</v>
+      </c>
+      <c r="G28">
+        <v>0.4597807779058907</v>
+      </c>
+      <c r="H28">
+        <v>1.063018477493221</v>
+      </c>
+      <c r="I28">
+        <v>1.296847562491805</v>
+      </c>
+      <c r="J28">
+        <v>0.4597807779058907</v>
+      </c>
+      <c r="K28">
+        <v>1.296847562491805</v>
+      </c>
+      <c r="L28">
+        <v>1.063018477493221</v>
+      </c>
+      <c r="M28">
+        <v>0.761399627699556</v>
+      </c>
+      <c r="N28">
+        <v>0.761399627699556</v>
+      </c>
+      <c r="O28">
+        <v>0.7494916649853717</v>
+      </c>
+      <c r="P28">
+        <v>0.9398822726303058</v>
+      </c>
+      <c r="Q28">
+        <v>0.9398822726303058</v>
+      </c>
+      <c r="R28">
+        <v>1.029123595095681</v>
+      </c>
+      <c r="S28">
+        <v>1.029123595095681</v>
+      </c>
+      <c r="T28">
+        <v>0.9681897139137415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.167165943480523</v>
+      </c>
+      <c r="D29">
+        <v>0.7788351958832949</v>
+      </c>
+      <c r="E29">
+        <v>1.192209921668154</v>
+      </c>
+      <c r="F29">
+        <v>1.102196055043425</v>
+      </c>
+      <c r="G29">
+        <v>0.5858145583056142</v>
+      </c>
+      <c r="H29">
+        <v>1.066089597427112</v>
+      </c>
+      <c r="I29">
+        <v>1.192209921668154</v>
+      </c>
+      <c r="J29">
+        <v>0.5858145583056142</v>
+      </c>
+      <c r="K29">
+        <v>1.192209921668154</v>
+      </c>
+      <c r="L29">
+        <v>1.066089597427112</v>
+      </c>
+      <c r="M29">
+        <v>0.8259520778663633</v>
+      </c>
+      <c r="N29">
+        <v>0.8259520778663633</v>
+      </c>
+      <c r="O29">
+        <v>0.8102464505386738</v>
+      </c>
+      <c r="P29">
+        <v>0.9480380258002935</v>
+      </c>
+      <c r="Q29">
+        <v>0.9480380258002935</v>
+      </c>
+      <c r="R29">
+        <v>1.009080999767259</v>
+      </c>
+      <c r="S29">
+        <v>1.009080999767259</v>
+      </c>
+      <c r="T29">
+        <v>0.9820518786346873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.231897955297974</v>
+      </c>
+      <c r="D30">
+        <v>0.8855535562937699</v>
+      </c>
+      <c r="E30">
+        <v>0.9843199285201826</v>
+      </c>
+      <c r="F30">
+        <v>1.045879522937275</v>
+      </c>
+      <c r="G30">
+        <v>0.83777977152336</v>
+      </c>
+      <c r="H30">
+        <v>1.071577907323612</v>
+      </c>
+      <c r="I30">
+        <v>0.9843199285201826</v>
+      </c>
+      <c r="J30">
+        <v>0.83777977152336</v>
+      </c>
+      <c r="K30">
+        <v>0.9843199285201826</v>
+      </c>
+      <c r="L30">
+        <v>1.071577907323612</v>
+      </c>
+      <c r="M30">
+        <v>0.9546788394234857</v>
+      </c>
+      <c r="N30">
+        <v>0.9546788394234857</v>
+      </c>
+      <c r="O30">
+        <v>0.9316370783802471</v>
+      </c>
+      <c r="P30">
+        <v>0.964559202455718</v>
+      </c>
+      <c r="Q30">
+        <v>0.964559202455718</v>
+      </c>
+      <c r="R30">
+        <v>0.9694993839718342</v>
+      </c>
+      <c r="S30">
+        <v>0.9694993839718342</v>
+      </c>
+      <c r="T30">
+        <v>1.009501440316029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.282762913117673</v>
+      </c>
+      <c r="D31">
+        <v>0.8755906469624388</v>
+      </c>
+      <c r="E31">
+        <v>0.9623856227707707</v>
+      </c>
+      <c r="F31">
+        <v>1.047301893860699</v>
+      </c>
+      <c r="G31">
+        <v>0.8442382465710164</v>
+      </c>
+      <c r="H31">
+        <v>1.082759035799924</v>
+      </c>
+      <c r="I31">
+        <v>0.9623856227707707</v>
+      </c>
+      <c r="J31">
+        <v>0.8442382465710164</v>
+      </c>
+      <c r="K31">
+        <v>0.9623856227707707</v>
+      </c>
+      <c r="L31">
+        <v>1.082759035799924</v>
+      </c>
+      <c r="M31">
+        <v>0.9634986411854702</v>
+      </c>
+      <c r="N31">
+        <v>0.9634986411854702</v>
+      </c>
+      <c r="O31">
+        <v>0.9341959764444597</v>
+      </c>
+      <c r="P31">
+        <v>0.9631276350472371</v>
+      </c>
+      <c r="Q31">
+        <v>0.9631276350472371</v>
+      </c>
+      <c r="R31">
+        <v>0.9629421319781205</v>
+      </c>
+      <c r="S31">
+        <v>0.9629421319781205</v>
+      </c>
+      <c r="T31">
+        <v>1.015839726513754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.100850016438356</v>
+      </c>
+      <c r="D32">
+        <v>0.6721108505479451</v>
+      </c>
+      <c r="E32">
+        <v>1.401357578082191</v>
+      </c>
+      <c r="F32">
+        <v>1.158574768493151</v>
+      </c>
+      <c r="G32">
+        <v>0.3333027946575342</v>
+      </c>
+      <c r="H32">
+        <v>1.060236223287672</v>
+      </c>
+      <c r="I32">
+        <v>1.401357578082191</v>
+      </c>
+      <c r="J32">
+        <v>0.3333027946575342</v>
+      </c>
+      <c r="K32">
+        <v>1.401357578082191</v>
+      </c>
+      <c r="L32">
+        <v>1.060236223287672</v>
+      </c>
+      <c r="M32">
+        <v>0.696769508972603</v>
+      </c>
+      <c r="N32">
+        <v>0.696769508972603</v>
+      </c>
+      <c r="O32">
+        <v>0.6885499561643837</v>
+      </c>
+      <c r="P32">
+        <v>0.9316321986757993</v>
+      </c>
+      <c r="Q32">
+        <v>0.9316321986757993</v>
+      </c>
+      <c r="R32">
+        <v>1.049063543527397</v>
+      </c>
+      <c r="S32">
+        <v>1.049063543527397</v>
+      </c>
+      <c r="T32">
+        <v>0.9544053719178084</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.27279937</v>
+      </c>
+      <c r="D33">
+        <v>0.86449466</v>
+      </c>
+      <c r="E33">
+        <v>0.9856860389473683</v>
+      </c>
+      <c r="F33">
+        <v>1.053654772631579</v>
+      </c>
+      <c r="G33">
+        <v>0.8084716734736841</v>
+      </c>
+      <c r="H33">
+        <v>1.083273490526316</v>
+      </c>
+      <c r="I33">
+        <v>0.9856860389473683</v>
+      </c>
+      <c r="J33">
+        <v>0.8084716734736841</v>
+      </c>
+      <c r="K33">
+        <v>0.9856860389473683</v>
+      </c>
+      <c r="L33">
+        <v>1.083273490526316</v>
+      </c>
+      <c r="M33">
+        <v>0.945872582</v>
+      </c>
+      <c r="N33">
+        <v>0.945872582</v>
+      </c>
+      <c r="O33">
+        <v>0.9187466080000001</v>
+      </c>
+      <c r="P33">
+        <v>0.9591437343157895</v>
+      </c>
+      <c r="Q33">
+        <v>0.9591437343157895</v>
+      </c>
+      <c r="R33">
+        <v>0.9657793104736841</v>
+      </c>
+      <c r="S33">
+        <v>0.9657793104736841</v>
+      </c>
+      <c r="T33">
+        <v>1.011396667596491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.272796512105263</v>
+      </c>
+      <c r="D34">
+        <v>0.8644998310526317</v>
+      </c>
+      <c r="E34">
+        <v>0.9856801668421052</v>
+      </c>
+      <c r="F34">
+        <v>1.053652448947369</v>
+      </c>
+      <c r="G34">
+        <v>0.8084809749473685</v>
+      </c>
+      <c r="H34">
+        <v>1.083272633157895</v>
+      </c>
+      <c r="I34">
+        <v>0.9856801668421052</v>
+      </c>
+      <c r="J34">
+        <v>0.8084809749473685</v>
+      </c>
+      <c r="K34">
+        <v>0.9856801668421052</v>
+      </c>
+      <c r="L34">
+        <v>1.083272633157895</v>
+      </c>
+      <c r="M34">
+        <v>0.9458768040526317</v>
+      </c>
+      <c r="N34">
+        <v>0.9458768040526317</v>
+      </c>
+      <c r="O34">
+        <v>0.918751146385965</v>
+      </c>
+      <c r="P34">
+        <v>0.9591445916491229</v>
+      </c>
+      <c r="Q34">
+        <v>0.9591445916491229</v>
+      </c>
+      <c r="R34">
+        <v>0.9657784854473686</v>
+      </c>
+      <c r="S34">
+        <v>0.9657784854473686</v>
+      </c>
+      <c r="T34">
+        <v>1.011397094508772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>2.092698094569589</v>
+      </c>
+      <c r="D35">
+        <v>0.555970003191765</v>
+      </c>
+      <c r="E35">
+        <v>0.825577607218975</v>
+      </c>
+      <c r="F35">
+        <v>1.162409887969561</v>
+      </c>
+      <c r="G35">
+        <v>0.4484035432504986</v>
+      </c>
+      <c r="H35">
+        <v>1.304538227302852</v>
+      </c>
+      <c r="I35">
+        <v>0.825577607218975</v>
+      </c>
+      <c r="J35">
+        <v>0.4484035432504986</v>
+      </c>
+      <c r="K35">
+        <v>0.825577607218975</v>
+      </c>
+      <c r="L35">
+        <v>1.304538227302852</v>
+      </c>
+      <c r="M35">
+        <v>0.8764708852766753</v>
+      </c>
+      <c r="N35">
+        <v>0.8764708852766753</v>
+      </c>
+      <c r="O35">
+        <v>0.7696372579150386</v>
+      </c>
+      <c r="P35">
+        <v>0.8595064592574418</v>
+      </c>
+      <c r="Q35">
+        <v>0.8595064592574418</v>
+      </c>
+      <c r="R35">
+        <v>0.8510242462478251</v>
+      </c>
+      <c r="S35">
+        <v>0.8510242462478251</v>
+      </c>
+      <c r="T35">
+        <v>1.064932893917207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.001095832439562</v>
+      </c>
+      <c r="D36">
+        <v>1.000003427174073</v>
+      </c>
+      <c r="E36">
+        <v>0.9991975785149171</v>
+      </c>
+      <c r="F36">
+        <v>0.9999327913080522</v>
+      </c>
+      <c r="G36">
+        <v>1.000402571983614</v>
+      </c>
+      <c r="H36">
+        <v>1.000247168299788</v>
+      </c>
+      <c r="I36">
+        <v>0.9991975785149171</v>
+      </c>
+      <c r="J36">
+        <v>1.000402571983614</v>
+      </c>
+      <c r="K36">
+        <v>0.9991975785149171</v>
+      </c>
+      <c r="L36">
+        <v>1.000247168299788</v>
+      </c>
+      <c r="M36">
+        <v>1.000324870141701</v>
+      </c>
+      <c r="N36">
+        <v>1.000324870141701</v>
+      </c>
+      <c r="O36">
+        <v>1.000217722485825</v>
+      </c>
+      <c r="P36">
+        <v>0.9999491062661066</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999491062661066</v>
+      </c>
+      <c r="R36">
+        <v>0.9997612243283092</v>
+      </c>
+      <c r="S36">
+        <v>0.9997612243283092</v>
+      </c>
+      <c r="T36">
+        <v>1.000146561620001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.001739214522223</v>
+      </c>
+      <c r="D37">
+        <v>0.9988549456753875</v>
+      </c>
+      <c r="E37">
+        <v>1.000422824834236</v>
+      </c>
+      <c r="F37">
+        <v>1.000476729666993</v>
+      </c>
+      <c r="G37">
+        <v>0.9981248686568673</v>
+      </c>
+      <c r="H37">
+        <v>1.000490758278101</v>
+      </c>
+      <c r="I37">
+        <v>1.000422824834236</v>
+      </c>
+      <c r="J37">
+        <v>0.9981248686568673</v>
+      </c>
+      <c r="K37">
+        <v>1.000422824834236</v>
+      </c>
+      <c r="L37">
+        <v>1.000490758278101</v>
+      </c>
+      <c r="M37">
+        <v>0.999307813467484</v>
+      </c>
+      <c r="N37">
+        <v>0.999307813467484</v>
+      </c>
+      <c r="O37">
+        <v>0.9991568575367852</v>
+      </c>
+      <c r="P37">
+        <v>0.9996794839230682</v>
+      </c>
+      <c r="Q37">
+        <v>0.9996794839230682</v>
+      </c>
+      <c r="R37">
+        <v>0.9998653191508602</v>
+      </c>
+      <c r="S37">
+        <v>0.9998653191508602</v>
+      </c>
+      <c r="T37">
+        <v>1.000018223605635</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.002978492003536</v>
+      </c>
+      <c r="D38">
+        <v>0.9957163381542307</v>
+      </c>
+      <c r="E38">
+        <v>1.004111720000526</v>
+      </c>
+      <c r="F38">
+        <v>1.001948515838852</v>
+      </c>
+      <c r="G38">
+        <v>0.9917376887709259</v>
+      </c>
+      <c r="H38">
+        <v>1.001186939068027</v>
+      </c>
+      <c r="I38">
+        <v>1.004111720000526</v>
+      </c>
+      <c r="J38">
+        <v>0.9917376887709259</v>
+      </c>
+      <c r="K38">
+        <v>1.004111720000526</v>
+      </c>
+      <c r="L38">
+        <v>1.001186939068027</v>
+      </c>
+      <c r="M38">
+        <v>0.9964623139194764</v>
+      </c>
+      <c r="N38">
+        <v>0.9964623139194764</v>
+      </c>
+      <c r="O38">
+        <v>0.9962136553310611</v>
+      </c>
+      <c r="P38">
+        <v>0.9990121159464929</v>
+      </c>
+      <c r="Q38">
+        <v>0.9990121159464929</v>
+      </c>
+      <c r="R38">
+        <v>1.000287016960001</v>
+      </c>
+      <c r="S38">
+        <v>1.000287016960001</v>
+      </c>
+      <c r="T38">
+        <v>0.9996132823060163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.003593582317281</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9897858989407718</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.012327702497398</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.004883746727554</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.97926736794866</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.001938215405189</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.012327702497398</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.97926736794866</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.012327702497398</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.001938215405189</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9906027916769242</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9906027916769242</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9903304940982068</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.997844428617082</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.997844428617082</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.001465247087161</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.001465247087161</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9986327523061421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.032543600178742</v>
+      </c>
+      <c r="D40">
+        <v>0.9548519765144735</v>
+      </c>
+      <c r="E40">
+        <v>1.040387488042652</v>
+      </c>
+      <c r="F40">
+        <v>1.021151880811885</v>
+      </c>
+      <c r="G40">
+        <v>0.9112300285444734</v>
+      </c>
+      <c r="H40">
+        <v>1.013485562399743</v>
+      </c>
+      <c r="I40">
+        <v>1.040387488042652</v>
+      </c>
+      <c r="J40">
+        <v>0.9112300285444734</v>
+      </c>
+      <c r="K40">
+        <v>1.040387488042652</v>
+      </c>
+      <c r="L40">
+        <v>1.013485562399743</v>
+      </c>
+      <c r="M40">
+        <v>0.9623577954721081</v>
+      </c>
+      <c r="N40">
+        <v>0.9623577954721081</v>
+      </c>
+      <c r="O40">
+        <v>0.9598558558195632</v>
+      </c>
+      <c r="P40">
+        <v>0.9883676929956229</v>
+      </c>
+      <c r="Q40">
+        <v>0.9883676929956229</v>
+      </c>
+      <c r="R40">
+        <v>1.00137264175738</v>
+      </c>
+      <c r="S40">
+        <v>1.00137264175738</v>
+      </c>
+      <c r="T40">
+        <v>0.9956084227486617</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9670544797003671</v>
+      </c>
+      <c r="D41">
+        <v>1.02579005422851</v>
+      </c>
+      <c r="E41">
+        <v>0.9912750387650129</v>
+      </c>
+      <c r="F41">
+        <v>0.9881446794693618</v>
+      </c>
+      <c r="G41">
+        <v>1.046345989619542</v>
+      </c>
+      <c r="H41">
+        <v>0.9868126333592713</v>
+      </c>
+      <c r="I41">
+        <v>0.9912750387650129</v>
+      </c>
+      <c r="J41">
+        <v>1.046345989619542</v>
+      </c>
+      <c r="K41">
+        <v>0.9912750387650129</v>
+      </c>
+      <c r="L41">
+        <v>0.9868126333592713</v>
+      </c>
+      <c r="M41">
+        <v>1.016579311489406</v>
+      </c>
+      <c r="N41">
+        <v>1.016579311489406</v>
+      </c>
+      <c r="O41">
+        <v>1.019649559069108</v>
+      </c>
+      <c r="P41">
+        <v>1.008144553914609</v>
+      </c>
+      <c r="Q41">
+        <v>1.008144553914609</v>
+      </c>
+      <c r="R41">
+        <v>1.00392717512721</v>
+      </c>
+      <c r="S41">
+        <v>1.00392717512721</v>
+      </c>
+      <c r="T41">
+        <v>1.000903812523678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.130779017582198</v>
+      </c>
+      <c r="D42">
+        <v>0.8257818793781573</v>
+      </c>
+      <c r="E42">
+        <v>1.14935094907096</v>
+      </c>
+      <c r="F42">
+        <v>1.082310452769405</v>
+      </c>
+      <c r="G42">
+        <v>0.6521538306046992</v>
+      </c>
+      <c r="H42">
+        <v>1.054870891900838</v>
+      </c>
+      <c r="I42">
+        <v>1.14935094907096</v>
+      </c>
+      <c r="J42">
+        <v>0.6521538306046992</v>
+      </c>
+      <c r="K42">
+        <v>1.14935094907096</v>
+      </c>
+      <c r="L42">
+        <v>1.054870891900838</v>
+      </c>
+      <c r="M42">
+        <v>0.8535123612527689</v>
+      </c>
+      <c r="N42">
+        <v>0.8535123612527689</v>
+      </c>
+      <c r="O42">
+        <v>0.844268867294565</v>
+      </c>
+      <c r="P42">
+        <v>0.9521252238588325</v>
+      </c>
+      <c r="Q42">
+        <v>0.9521252238588325</v>
+      </c>
+      <c r="R42">
+        <v>1.001431655161864</v>
+      </c>
+      <c r="S42">
+        <v>1.001431655161864</v>
+      </c>
+      <c r="T42">
+        <v>0.9825411702177096</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.016506246123946</v>
+        <v>1.005159526707476</v>
       </c>
       <c r="D3">
-        <v>0.9718900977339328</v>
+        <v>0.9976691628951723</v>
       </c>
       <c r="E3">
-        <v>1.002868681699677</v>
+        <v>0.9994773760579733</v>
       </c>
       <c r="F3">
-        <v>1.016506246123946</v>
+        <v>1.000889434132372</v>
       </c>
       <c r="G3">
-        <v>1.005490598741494</v>
+        <v>0.9968968185729949</v>
       </c>
       <c r="H3">
-        <v>0.9858004410429821</v>
+        <v>1.001486995335794</v>
       </c>
       <c r="I3">
-        <v>1.006786283247563</v>
+        <v>0.9994773760579733</v>
       </c>
       <c r="J3">
-        <v>0.9718900977339328</v>
+        <v>0.9968968185729949</v>
       </c>
       <c r="K3">
-        <v>1.016506246123946</v>
+        <v>0.9994773760579733</v>
       </c>
       <c r="L3">
-        <v>1.002868681699677</v>
+        <v>1.001486995335794</v>
       </c>
       <c r="M3">
-        <v>0.9873793897168046</v>
+        <v>0.9991919069543946</v>
       </c>
       <c r="N3">
-        <v>0.9873793897168046</v>
+        <v>0.9991919069543946</v>
       </c>
       <c r="O3">
-        <v>0.9868530734921972</v>
+        <v>0.9986843256013205</v>
       </c>
       <c r="P3">
-        <v>0.9970883418525184</v>
+        <v>0.9992870633222543</v>
       </c>
       <c r="Q3">
-        <v>0.9970883418525184</v>
+        <v>0.9992870633222543</v>
       </c>
       <c r="R3">
-        <v>1.001942817920375</v>
+        <v>0.999334641506184</v>
       </c>
       <c r="S3">
-        <v>1.001942817920375</v>
+        <v>0.999334641506184</v>
       </c>
       <c r="T3">
-        <v>0.9982237247649324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000263218950297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.031677234039843</v>
+        <v>1.032543600178742</v>
       </c>
       <c r="D4">
-        <v>0.9455176555206817</v>
+        <v>0.9548519765144735</v>
       </c>
       <c r="E4">
-        <v>1.005584259312402</v>
+        <v>1.040387488042652</v>
       </c>
       <c r="F4">
-        <v>1.031677234039843</v>
+        <v>1.021151880811885</v>
       </c>
       <c r="G4">
-        <v>1.010734741634625</v>
+        <v>0.9112300285444734</v>
       </c>
       <c r="H4">
-        <v>0.9726592396014222</v>
+        <v>1.013485562399743</v>
       </c>
       <c r="I4">
-        <v>1.01308062039603</v>
+        <v>1.040387488042652</v>
       </c>
       <c r="J4">
-        <v>0.9455176555206817</v>
+        <v>0.9112300285444734</v>
       </c>
       <c r="K4">
-        <v>1.031677234039843</v>
+        <v>1.040387488042652</v>
       </c>
       <c r="L4">
-        <v>1.005584259312402</v>
+        <v>1.013485562399743</v>
       </c>
       <c r="M4">
-        <v>0.9755509574165421</v>
+        <v>0.9623577954721081</v>
       </c>
       <c r="N4">
-        <v>0.9755509574165421</v>
+        <v>0.9623577954721081</v>
       </c>
       <c r="O4">
-        <v>0.9745870514781688</v>
+        <v>0.9598558558195632</v>
       </c>
       <c r="P4">
-        <v>0.9942597162909759</v>
+        <v>0.9883676929956229</v>
       </c>
       <c r="Q4">
-        <v>0.9942597162909759</v>
+        <v>0.9883676929956229</v>
       </c>
       <c r="R4">
-        <v>1.003614095728193</v>
+        <v>1.00137264175738</v>
       </c>
       <c r="S4">
-        <v>1.003614095728193</v>
+        <v>1.00137264175738</v>
       </c>
       <c r="T4">
-        <v>0.9965422917508341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9956084227486617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.059354052817176</v>
+        <v>1.273332453753596</v>
       </c>
       <c r="D5">
-        <v>0.8969245190905412</v>
+        <v>0.864419154963976</v>
       </c>
       <c r="E5">
-        <v>1.011101819701415</v>
+        <v>0.9845379370749309</v>
       </c>
       <c r="F5">
-        <v>1.059354052817176</v>
+        <v>1.054093513335739</v>
       </c>
       <c r="G5">
-        <v>1.022325121962063</v>
+        <v>0.8077704244481285</v>
       </c>
       <c r="H5">
-        <v>0.9475886826043551</v>
+        <v>1.083274970007206</v>
       </c>
       <c r="I5">
-        <v>1.024939178161618</v>
+        <v>0.9845379370749309</v>
       </c>
       <c r="J5">
-        <v>0.8969245190905412</v>
+        <v>0.8077704244481285</v>
       </c>
       <c r="K5">
-        <v>1.059354052817176</v>
+        <v>0.9845379370749309</v>
       </c>
       <c r="L5">
-        <v>1.011101819701415</v>
+        <v>1.083274970007206</v>
       </c>
       <c r="M5">
-        <v>0.9540131693959779</v>
+        <v>0.945522697227667</v>
       </c>
       <c r="N5">
-        <v>0.9540131693959779</v>
+        <v>0.945522697227667</v>
       </c>
       <c r="O5">
-        <v>0.9518716737987702</v>
+        <v>0.91848818313977</v>
       </c>
       <c r="P5">
-        <v>0.9891267972030441</v>
+        <v>0.958527777176755</v>
       </c>
       <c r="Q5">
-        <v>0.9891267972030441</v>
+        <v>0.958527777176755</v>
       </c>
       <c r="R5">
-        <v>1.006683611106577</v>
+        <v>0.9650303171512989</v>
       </c>
       <c r="S5">
-        <v>1.006683611106577</v>
+        <v>0.9650303171512989</v>
       </c>
       <c r="T5">
-        <v>0.9937055623895281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.011238075597263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.086473725676809</v>
+        <v>2.092698094569589</v>
       </c>
       <c r="D6">
-        <v>0.8503054731578428</v>
+        <v>0.555970003191765</v>
       </c>
       <c r="E6">
-        <v>1.017217528938717</v>
+        <v>0.825577607218975</v>
       </c>
       <c r="F6">
-        <v>1.086473725676809</v>
+        <v>1.162409887969561</v>
       </c>
       <c r="G6">
-        <v>1.032591385034919</v>
+        <v>0.4484035432504986</v>
       </c>
       <c r="H6">
-        <v>0.9224829197045707</v>
+        <v>1.304538227302852</v>
       </c>
       <c r="I6">
-        <v>1.036893549348306</v>
+        <v>0.825577607218975</v>
       </c>
       <c r="J6">
-        <v>0.8503054731578428</v>
+        <v>0.4484035432504986</v>
       </c>
       <c r="K6">
-        <v>1.086473725676809</v>
+        <v>0.825577607218975</v>
       </c>
       <c r="L6">
-        <v>1.017217528938717</v>
+        <v>1.304538227302852</v>
       </c>
       <c r="M6">
-        <v>0.93376150104828</v>
+        <v>0.8764708852766753</v>
       </c>
       <c r="N6">
-        <v>0.93376150104828</v>
+        <v>0.8764708852766753</v>
       </c>
       <c r="O6">
-        <v>0.9300019739337103</v>
+        <v>0.7696372579150386</v>
       </c>
       <c r="P6">
-        <v>0.9846655759244562</v>
+        <v>0.8595064592574418</v>
       </c>
       <c r="Q6">
-        <v>0.9846655759244562</v>
+        <v>0.8595064592574418</v>
       </c>
       <c r="R6">
-        <v>1.010117613362544</v>
+        <v>0.8510242462478251</v>
       </c>
       <c r="S6">
-        <v>1.010117613362544</v>
+        <v>0.8510242462478251</v>
       </c>
       <c r="T6">
-        <v>0.9909940969768609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.064932893917207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997331007781609</v>
+        <v>1.006354801698406</v>
       </c>
       <c r="D7">
-        <v>0.998824782848407</v>
+        <v>0.984600039663483</v>
       </c>
       <c r="E7">
-        <v>1.000598062031696</v>
+        <v>1.017427784520411</v>
       </c>
       <c r="F7">
-        <v>0.9997331007781609</v>
+        <v>1.007402564005827</v>
       </c>
       <c r="G7">
-        <v>1.00210738506561</v>
+        <v>0.969078370862234</v>
       </c>
       <c r="H7">
-        <v>0.9990904683184813</v>
+        <v>1.00333811832708</v>
       </c>
       <c r="I7">
-        <v>1.000340618328413</v>
+        <v>1.017427784520411</v>
       </c>
       <c r="J7">
-        <v>0.998824782848407</v>
+        <v>0.969078370862234</v>
       </c>
       <c r="K7">
-        <v>0.9997331007781609</v>
+        <v>1.017427784520411</v>
       </c>
       <c r="L7">
-        <v>1.000598062031696</v>
+        <v>1.00333811832708</v>
       </c>
       <c r="M7">
-        <v>0.9997114224400514</v>
+        <v>0.9862082445946572</v>
       </c>
       <c r="N7">
-        <v>0.9997114224400514</v>
+        <v>0.9862082445946572</v>
       </c>
       <c r="O7">
-        <v>0.9995044377328614</v>
+        <v>0.9856721762842658</v>
       </c>
       <c r="P7">
-        <v>0.9997186485527546</v>
+        <v>0.9966147579032417</v>
       </c>
       <c r="Q7">
-        <v>0.9997186485527546</v>
+        <v>0.9966147579032416</v>
       </c>
       <c r="R7">
-        <v>0.9997222616091062</v>
+        <v>1.001818014557534</v>
       </c>
       <c r="S7">
-        <v>0.9997222616091062</v>
+        <v>1.001818014557534</v>
       </c>
       <c r="T7">
-        <v>1.000115736228461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9980336131795734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9994773760579733</v>
+        <v>1.001739214522223</v>
       </c>
       <c r="D8">
-        <v>0.9968968185729953</v>
+        <v>0.9988549456753875</v>
       </c>
       <c r="E8">
-        <v>1.001486995335794</v>
+        <v>1.000422824834236</v>
       </c>
       <c r="F8">
-        <v>0.9994773760579733</v>
+        <v>1.000476729666993</v>
       </c>
       <c r="G8">
-        <v>1.005159526707475</v>
+        <v>0.9981248686568673</v>
       </c>
       <c r="H8">
-        <v>0.9976691628951724</v>
+        <v>1.000490758278101</v>
       </c>
       <c r="I8">
-        <v>1.000889434132372</v>
+        <v>1.000422824834236</v>
       </c>
       <c r="J8">
-        <v>0.9968968185729953</v>
+        <v>0.9981248686568673</v>
       </c>
       <c r="K8">
-        <v>0.9994773760579733</v>
+        <v>1.000422824834236</v>
       </c>
       <c r="L8">
-        <v>1.001486995335794</v>
+        <v>1.000490758278101</v>
       </c>
       <c r="M8">
-        <v>0.9991919069543949</v>
+        <v>0.999307813467484</v>
       </c>
       <c r="N8">
-        <v>0.9991919069543949</v>
+        <v>0.999307813467484</v>
       </c>
       <c r="O8">
-        <v>0.9986843256013206</v>
+        <v>0.9991568575367852</v>
       </c>
       <c r="P8">
-        <v>0.9992870633222544</v>
+        <v>0.9996794839230682</v>
       </c>
       <c r="Q8">
-        <v>0.9992870633222543</v>
+        <v>0.9996794839230682</v>
       </c>
       <c r="R8">
-        <v>0.999334641506184</v>
+        <v>0.9998653191508602</v>
       </c>
       <c r="S8">
-        <v>0.999334641506184</v>
+        <v>0.9998653191508602</v>
       </c>
       <c r="T8">
-        <v>1.000263218950297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000018223605635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9996482809467907</v>
+        <v>1.010734741634625</v>
       </c>
       <c r="D9">
-        <v>0.9953981197080701</v>
+        <v>0.9726592396014222</v>
       </c>
       <c r="E9">
-        <v>1.001997517425149</v>
+        <v>1.031677234039843</v>
       </c>
       <c r="F9">
-        <v>0.9996482809467907</v>
+        <v>1.01308062039603</v>
       </c>
       <c r="G9">
-        <v>1.006718172830049</v>
+        <v>0.9455176555206817</v>
       </c>
       <c r="H9">
-        <v>0.9967029531072729</v>
+        <v>1.005584259312403</v>
       </c>
       <c r="I9">
-        <v>1.001295998703567</v>
+        <v>1.031677234039843</v>
       </c>
       <c r="J9">
-        <v>0.9953981197080701</v>
+        <v>0.9455176555206817</v>
       </c>
       <c r="K9">
-        <v>0.9996482809467907</v>
+        <v>1.031677234039843</v>
       </c>
       <c r="L9">
-        <v>1.001997517425149</v>
+        <v>1.005584259312403</v>
       </c>
       <c r="M9">
-        <v>0.9986978185666096</v>
+        <v>0.9755509574165423</v>
       </c>
       <c r="N9">
-        <v>0.9986978185666096</v>
+        <v>0.9755509574165423</v>
       </c>
       <c r="O9">
-        <v>0.9980328634134974</v>
+        <v>0.9745870514781689</v>
       </c>
       <c r="P9">
-        <v>0.9990146393600033</v>
+        <v>0.994259716290976</v>
       </c>
       <c r="Q9">
-        <v>0.9990146393600033</v>
+        <v>0.994259716290976</v>
       </c>
       <c r="R9">
-        <v>0.9991730497567002</v>
+        <v>1.003614095728193</v>
       </c>
       <c r="S9">
-        <v>0.9991730497567002</v>
+        <v>1.003614095728193</v>
       </c>
       <c r="T9">
-        <v>1.00029350712015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9965422917508343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9988182310966298</v>
+        <v>2.117429454683098</v>
       </c>
       <c r="D10">
-        <v>0.9903763491177056</v>
+        <v>0.5493021114501393</v>
       </c>
       <c r="E10">
-        <v>1.004395699838794</v>
+        <v>0.8177314933507293</v>
       </c>
       <c r="F10">
-        <v>0.9988182310966298</v>
+        <v>1.164004490692147</v>
       </c>
       <c r="G10">
-        <v>1.015077157189243</v>
+        <v>0.4474643335517584</v>
       </c>
       <c r="H10">
-        <v>0.9929305053672144</v>
+        <v>1.310086865324251</v>
       </c>
       <c r="I10">
-        <v>1.00273128981002</v>
+        <v>0.8177314933507293</v>
       </c>
       <c r="J10">
-        <v>0.9903763491177056</v>
+        <v>0.4474643335517584</v>
       </c>
       <c r="K10">
-        <v>0.9988182310966298</v>
+        <v>0.8177314933507293</v>
       </c>
       <c r="L10">
-        <v>1.004395699838794</v>
+        <v>1.310086865324251</v>
       </c>
       <c r="M10">
-        <v>0.99738602447825</v>
+        <v>0.8787755994380044</v>
       </c>
       <c r="N10">
-        <v>0.99738602447825</v>
+        <v>0.8787755994380044</v>
       </c>
       <c r="O10">
-        <v>0.9959008514412382</v>
+        <v>0.7689511034420494</v>
       </c>
       <c r="P10">
-        <v>0.9978634266843766</v>
+        <v>0.8584275640755794</v>
       </c>
       <c r="Q10">
-        <v>0.9978634266843766</v>
+        <v>0.8584275640755794</v>
       </c>
       <c r="R10">
-        <v>0.9981021277874399</v>
+        <v>0.8482535463943669</v>
       </c>
       <c r="S10">
-        <v>0.9981021277874399</v>
+        <v>0.8482535463943669</v>
       </c>
       <c r="T10">
-        <v>1.000721538736601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.067669791508687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9989865255630518</v>
+        <v>1.016248643687483</v>
       </c>
       <c r="D11">
-        <v>0.983415540190979</v>
+        <v>0.9567731010781975</v>
       </c>
       <c r="E11">
-        <v>1.007072634820444</v>
+        <v>1.052128950209646</v>
       </c>
       <c r="F11">
-        <v>0.9989865255630518</v>
+        <v>1.02077729684902</v>
       </c>
       <c r="G11">
-        <v>1.0237629402629</v>
+        <v>0.909825494430114</v>
       </c>
       <c r="H11">
-        <v>0.9881915459096451</v>
+        <v>1.007979441447469</v>
       </c>
       <c r="I11">
-        <v>1.004653877358743</v>
+        <v>1.052128950209646</v>
       </c>
       <c r="J11">
-        <v>0.983415540190979</v>
+        <v>0.909825494430114</v>
       </c>
       <c r="K11">
-        <v>0.9989865255630518</v>
+        <v>1.052128950209646</v>
       </c>
       <c r="L11">
-        <v>1.007072634820444</v>
+        <v>1.007979441447469</v>
       </c>
       <c r="M11">
-        <v>0.9952440875057116</v>
+        <v>0.9589024679387916</v>
       </c>
       <c r="N11">
-        <v>0.9952440875057116</v>
+        <v>0.9589024679387916</v>
       </c>
       <c r="O11">
-        <v>0.9928932403070228</v>
+        <v>0.9581926789852603</v>
       </c>
       <c r="P11">
-        <v>0.9964915668581583</v>
+        <v>0.9899779620290764</v>
       </c>
       <c r="Q11">
-        <v>0.9964915668581583</v>
+        <v>0.9899779620290764</v>
       </c>
       <c r="R11">
-        <v>0.9971153065343816</v>
+        <v>1.005515709074219</v>
       </c>
       <c r="S11">
-        <v>0.9971153065343816</v>
+        <v>1.005515709074219</v>
       </c>
       <c r="T11">
-        <v>1.001013844017627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9939554879503216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.127529931029186</v>
+        <v>1.333885439905258</v>
       </c>
       <c r="D12">
-        <v>1.080266239210385</v>
+        <v>0.863062196831579</v>
       </c>
       <c r="E12">
-        <v>0.8953109169258399</v>
+        <v>0.9418948909368456</v>
       </c>
       <c r="F12">
-        <v>1.127529931029186</v>
+        <v>1.050664853073686</v>
       </c>
       <c r="G12">
-        <v>0.6737237648782022</v>
+        <v>0.8382013347410525</v>
       </c>
       <c r="H12">
-        <v>1.102813391086706</v>
+        <v>1.096192910494738</v>
       </c>
       <c r="I12">
-        <v>0.9631475760892618</v>
+        <v>0.9418948909368456</v>
       </c>
       <c r="J12">
-        <v>1.080266239210385</v>
+        <v>0.8382013347410525</v>
       </c>
       <c r="K12">
-        <v>1.127529931029186</v>
+        <v>0.9418948909368456</v>
       </c>
       <c r="L12">
-        <v>0.8953109169258399</v>
+        <v>1.096192910494738</v>
       </c>
       <c r="M12">
-        <v>0.9877885780681126</v>
+        <v>0.9671971226178953</v>
       </c>
       <c r="N12">
-        <v>0.9877885780681126</v>
+        <v>0.9671971226178953</v>
       </c>
       <c r="O12">
-        <v>1.026130182407644</v>
+        <v>0.9324854806891233</v>
       </c>
       <c r="P12">
-        <v>1.034369029055137</v>
+        <v>0.9587630453908788</v>
       </c>
       <c r="Q12">
-        <v>1.034369029055137</v>
+        <v>0.9587630453908785</v>
       </c>
       <c r="R12">
-        <v>1.057659254548649</v>
+        <v>0.9545460067773703</v>
       </c>
       <c r="S12">
-        <v>1.057659254548649</v>
+        <v>0.9545460067773703</v>
       </c>
       <c r="T12">
-        <v>0.9737986365365967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.020650270997193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.913972683505371</v>
+        <v>0.8701707749200813</v>
       </c>
       <c r="D13">
-        <v>1.105870336823763</v>
+        <v>1.091556186920055</v>
       </c>
       <c r="E13">
-        <v>1.011600528441368</v>
+        <v>0.9761993859988995</v>
       </c>
       <c r="F13">
-        <v>0.913972683505371</v>
+        <v>0.9583925387633687</v>
       </c>
       <c r="G13">
-        <v>1.047251050527995</v>
+        <v>1.168699779922548</v>
       </c>
       <c r="H13">
-        <v>1.027868909376407</v>
+        <v>0.951029032772059</v>
       </c>
       <c r="I13">
-        <v>0.9830813091344333</v>
+        <v>0.9761993859988995</v>
       </c>
       <c r="J13">
-        <v>1.105870336823763</v>
+        <v>1.168699779922548</v>
       </c>
       <c r="K13">
-        <v>0.913972683505371</v>
+        <v>0.9761993859988995</v>
       </c>
       <c r="L13">
-        <v>1.011600528441368</v>
+        <v>0.951029032772059</v>
       </c>
       <c r="M13">
-        <v>1.058735432632566</v>
+        <v>1.059864406347304</v>
       </c>
       <c r="N13">
-        <v>1.058735432632566</v>
+        <v>1.059864406347304</v>
       </c>
       <c r="O13">
-        <v>1.048446591547179</v>
+        <v>1.070428333204887</v>
       </c>
       <c r="P13">
-        <v>1.010481182923501</v>
+        <v>1.031976066231169</v>
       </c>
       <c r="Q13">
-        <v>1.010481182923501</v>
+        <v>1.031976066231169</v>
       </c>
       <c r="R13">
-        <v>0.9863540580689683</v>
+        <v>1.018031896173102</v>
       </c>
       <c r="S13">
-        <v>0.9863540580689683</v>
+        <v>1.018031896173102</v>
       </c>
       <c r="T13">
-        <v>1.014940802968223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.002674616549502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.127533510704577</v>
+        <v>2.955281000000005</v>
       </c>
       <c r="D14">
-        <v>1.080251995291118</v>
+        <v>0.2238942000000001</v>
       </c>
       <c r="E14">
-        <v>0.8953132396605803</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="F14">
-        <v>1.127533510704577</v>
+        <v>1.280074200000001</v>
       </c>
       <c r="G14">
-        <v>0.6737285090612063</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="H14">
-        <v>1.102807217321749</v>
+        <v>1.538146999999998</v>
       </c>
       <c r="I14">
-        <v>0.9631511317995493</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="J14">
-        <v>1.080251995291118</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="K14">
-        <v>1.127533510704577</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="L14">
-        <v>0.8953132396605803</v>
+        <v>1.538146999999998</v>
       </c>
       <c r="M14">
-        <v>0.9877826174758489</v>
+        <v>0.7962520609999991</v>
       </c>
       <c r="N14">
-        <v>0.9877826174758489</v>
+        <v>0.7962520609999991</v>
       </c>
       <c r="O14">
-        <v>1.026124150757816</v>
+        <v>0.6054661073333328</v>
       </c>
       <c r="P14">
-        <v>1.034366248552092</v>
+        <v>0.7539044373333322</v>
       </c>
       <c r="Q14">
-        <v>1.034366248552091</v>
+        <v>0.7539044373333325</v>
       </c>
       <c r="R14">
-        <v>1.057658064090213</v>
+        <v>0.732730625499999</v>
       </c>
       <c r="S14">
-        <v>1.057658064090213</v>
+        <v>0.732730625499999</v>
       </c>
       <c r="T14">
-        <v>0.9737976006397965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.120160452000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9139735157150428</v>
+        <v>1.1036882</v>
       </c>
       <c r="D15">
-        <v>1.105868676006457</v>
+        <v>0.67050347</v>
       </c>
       <c r="E15">
-        <v>1.01160124971113</v>
+        <v>1.4051854</v>
       </c>
       <c r="F15">
-        <v>0.9139735157150428</v>
+        <v>1.1574243</v>
       </c>
       <c r="G15">
-        <v>1.047254677975845</v>
+        <v>0.33396861</v>
       </c>
       <c r="H15">
-        <v>1.0278669807656</v>
+        <v>1.0615977</v>
       </c>
       <c r="I15">
-        <v>0.9830818209775607</v>
+        <v>1.4051854</v>
       </c>
       <c r="J15">
-        <v>1.105868676006457</v>
+        <v>0.33396861</v>
       </c>
       <c r="K15">
-        <v>0.9139735157150428</v>
+        <v>1.4051854</v>
       </c>
       <c r="L15">
-        <v>1.01160124971113</v>
+        <v>1.0615977</v>
       </c>
       <c r="M15">
-        <v>1.058734962858793</v>
+        <v>0.697783155</v>
       </c>
       <c r="N15">
-        <v>1.058734962858793</v>
+        <v>0.697783155</v>
       </c>
       <c r="O15">
-        <v>1.048445635494396</v>
+        <v>0.6886899266666666</v>
       </c>
       <c r="P15">
-        <v>1.01048114714421</v>
+        <v>0.9335839033333334</v>
       </c>
       <c r="Q15">
-        <v>1.01048114714421</v>
+        <v>0.9335839033333334</v>
       </c>
       <c r="R15">
-        <v>0.9863542392869182</v>
+        <v>1.0514842775</v>
       </c>
       <c r="S15">
-        <v>0.9863542392869182</v>
+        <v>1.0514842775</v>
       </c>
       <c r="T15">
-        <v>1.014941153525273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9553946133333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.999197578514917</v>
+        <v>1.1036579</v>
       </c>
       <c r="D16">
-        <v>1.000402571983614</v>
+        <v>0.67051816</v>
       </c>
       <c r="E16">
-        <v>1.000247168299788</v>
+        <v>1.4051849</v>
       </c>
       <c r="F16">
-        <v>0.999197578514917</v>
+        <v>1.157419</v>
       </c>
       <c r="G16">
-        <v>1.001095832439562</v>
+        <v>0.33398483</v>
       </c>
       <c r="H16">
-        <v>1.000003427174073</v>
+        <v>1.0615906</v>
       </c>
       <c r="I16">
-        <v>0.9999327913080519</v>
+        <v>1.4051849</v>
       </c>
       <c r="J16">
-        <v>1.000402571983614</v>
+        <v>0.33398483</v>
       </c>
       <c r="K16">
-        <v>0.999197578514917</v>
+        <v>1.4051849</v>
       </c>
       <c r="L16">
-        <v>1.000247168299788</v>
+        <v>1.0615906</v>
       </c>
       <c r="M16">
-        <v>1.000324870141701</v>
+        <v>0.697787715</v>
       </c>
       <c r="N16">
-        <v>1.000324870141701</v>
+        <v>0.697787715</v>
       </c>
       <c r="O16">
-        <v>1.000217722485825</v>
+        <v>0.6886978633333333</v>
       </c>
       <c r="P16">
-        <v>0.9999491062661066</v>
+        <v>0.9335867766666667</v>
       </c>
       <c r="Q16">
-        <v>0.9999491062661064</v>
+        <v>0.9335867766666667</v>
       </c>
       <c r="R16">
-        <v>0.9997612243283091</v>
+        <v>1.0514863075</v>
       </c>
       <c r="S16">
-        <v>0.9997612243283091</v>
+        <v>1.0514863075</v>
       </c>
       <c r="T16">
-        <v>1.000146561620001</v>
+        <v>0.9553925649999999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000422824834236</v>
+        <v>0.97204921</v>
       </c>
       <c r="D17">
-        <v>0.9981248686568671</v>
+        <v>1.2398743</v>
       </c>
       <c r="E17">
-        <v>1.000490758278101</v>
+        <v>0.63807341</v>
       </c>
       <c r="F17">
-        <v>1.000422824834236</v>
+        <v>0.88031033</v>
       </c>
       <c r="G17">
-        <v>1.001739214522223</v>
+        <v>1.5866994</v>
       </c>
       <c r="H17">
-        <v>0.9988549456753879</v>
+        <v>0.9823827800000001</v>
       </c>
       <c r="I17">
-        <v>1.000476729666993</v>
+        <v>0.63807341</v>
       </c>
       <c r="J17">
-        <v>0.9981248686568671</v>
+        <v>1.5866994</v>
       </c>
       <c r="K17">
-        <v>1.000422824834236</v>
+        <v>0.63807341</v>
       </c>
       <c r="L17">
-        <v>1.000490758278101</v>
+        <v>0.9823827800000001</v>
       </c>
       <c r="M17">
-        <v>0.9993078134674839</v>
+        <v>1.28454109</v>
       </c>
       <c r="N17">
-        <v>0.9993078134674839</v>
+        <v>1.28454109</v>
       </c>
       <c r="O17">
-        <v>0.9991568575367852</v>
+        <v>1.26965216</v>
       </c>
       <c r="P17">
-        <v>0.9996794839230678</v>
+        <v>1.069051863333333</v>
       </c>
       <c r="Q17">
-        <v>0.9996794839230678</v>
+        <v>1.069051863333333</v>
       </c>
       <c r="R17">
-        <v>0.9998653191508597</v>
+        <v>0.9613072499999999</v>
       </c>
       <c r="S17">
-        <v>0.9998653191508597</v>
+        <v>0.9613072499999999</v>
       </c>
       <c r="T17">
-        <v>1.000018223605635</v>
+        <v>1.049898238333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004111720000526</v>
+        <v>1.100850016438356</v>
       </c>
       <c r="D18">
-        <v>0.9917376887709261</v>
+        <v>0.6721108505479451</v>
       </c>
       <c r="E18">
-        <v>1.001186939068027</v>
+        <v>1.401357578082191</v>
       </c>
       <c r="F18">
-        <v>1.004111720000526</v>
+        <v>1.158574768493151</v>
       </c>
       <c r="G18">
-        <v>1.002978492003536</v>
+        <v>0.3333027946575342</v>
       </c>
       <c r="H18">
-        <v>0.9957163381542308</v>
+        <v>1.060236223287672</v>
       </c>
       <c r="I18">
-        <v>1.001948515838852</v>
+        <v>1.401357578082191</v>
       </c>
       <c r="J18">
-        <v>0.9917376887709261</v>
+        <v>0.3333027946575342</v>
       </c>
       <c r="K18">
-        <v>1.004111720000526</v>
+        <v>1.401357578082191</v>
       </c>
       <c r="L18">
-        <v>1.001186939068027</v>
+        <v>1.060236223287672</v>
       </c>
       <c r="M18">
-        <v>0.9964623139194764</v>
+        <v>0.696769508972603</v>
       </c>
       <c r="N18">
-        <v>0.9964623139194764</v>
+        <v>0.696769508972603</v>
       </c>
       <c r="O18">
-        <v>0.9962136553310611</v>
+        <v>0.6885499561643837</v>
       </c>
       <c r="P18">
-        <v>0.9990121159464929</v>
+        <v>0.9316321986757993</v>
       </c>
       <c r="Q18">
-        <v>0.9990121159464929</v>
+        <v>0.9316321986757993</v>
       </c>
       <c r="R18">
-        <v>1.000287016960001</v>
+        <v>1.049063543527397</v>
       </c>
       <c r="S18">
-        <v>1.000287016960001</v>
+        <v>1.049063543527397</v>
       </c>
       <c r="T18">
-        <v>0.9996132823060163</v>
+        <v>0.9544053719178084</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.012327702497398</v>
+        <v>1.27279937</v>
       </c>
       <c r="D19">
-        <v>0.97926736794866</v>
+        <v>0.86449466</v>
       </c>
       <c r="E19">
-        <v>1.001938215405189</v>
+        <v>0.9856860389473683</v>
       </c>
       <c r="F19">
-        <v>1.012327702497398</v>
+        <v>1.053654772631579</v>
       </c>
       <c r="G19">
-        <v>1.003593582317281</v>
+        <v>0.8084716734736841</v>
       </c>
       <c r="H19">
-        <v>0.9897858989407718</v>
+        <v>1.083273490526316</v>
       </c>
       <c r="I19">
-        <v>1.004883746727554</v>
+        <v>0.9856860389473683</v>
       </c>
       <c r="J19">
-        <v>0.97926736794866</v>
+        <v>0.8084716734736841</v>
       </c>
       <c r="K19">
-        <v>1.012327702497398</v>
+        <v>0.9856860389473683</v>
       </c>
       <c r="L19">
-        <v>1.001938215405189</v>
+        <v>1.083273490526316</v>
       </c>
       <c r="M19">
-        <v>0.9906027916769244</v>
+        <v>0.945872582</v>
       </c>
       <c r="N19">
-        <v>0.9906027916769244</v>
+        <v>0.945872582</v>
       </c>
       <c r="O19">
-        <v>0.9903304940982069</v>
+        <v>0.9187466080000001</v>
       </c>
       <c r="P19">
-        <v>0.9978444286170821</v>
+        <v>0.9591437343157895</v>
       </c>
       <c r="Q19">
-        <v>0.9978444286170821</v>
+        <v>0.9591437343157895</v>
       </c>
       <c r="R19">
-        <v>1.001465247087161</v>
+        <v>0.9657793104736841</v>
       </c>
       <c r="S19">
-        <v>1.001465247087161</v>
+        <v>0.9657793104736841</v>
       </c>
       <c r="T19">
-        <v>0.9986327523061423</v>
+        <v>1.011396667596491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.272796512105263</v>
+      </c>
+      <c r="D20">
+        <v>0.8644998310526317</v>
+      </c>
+      <c r="E20">
+        <v>0.9856801668421052</v>
+      </c>
+      <c r="F20">
+        <v>1.053652448947369</v>
+      </c>
+      <c r="G20">
+        <v>0.8084809749473685</v>
+      </c>
+      <c r="H20">
+        <v>1.083272633157895</v>
+      </c>
+      <c r="I20">
+        <v>0.9856801668421052</v>
+      </c>
+      <c r="J20">
+        <v>0.8084809749473685</v>
+      </c>
+      <c r="K20">
+        <v>0.9856801668421052</v>
+      </c>
+      <c r="L20">
+        <v>1.083272633157895</v>
+      </c>
+      <c r="M20">
+        <v>0.9458768040526317</v>
+      </c>
+      <c r="N20">
+        <v>0.9458768040526317</v>
+      </c>
+      <c r="O20">
+        <v>0.918751146385965</v>
+      </c>
+      <c r="P20">
+        <v>0.9591445916491229</v>
+      </c>
+      <c r="Q20">
+        <v>0.9591445916491229</v>
+      </c>
+      <c r="R20">
+        <v>0.9657784854473686</v>
+      </c>
+      <c r="S20">
+        <v>0.9657784854473686</v>
+      </c>
+      <c r="T20">
+        <v>1.011397094508772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.6737285090612065</v>
+      </c>
+      <c r="D21">
+        <v>1.102807217321749</v>
+      </c>
+      <c r="E21">
+        <v>1.127533510704577</v>
+      </c>
+      <c r="F21">
+        <v>0.9631511317995493</v>
+      </c>
+      <c r="G21">
+        <v>1.080251995291118</v>
+      </c>
+      <c r="H21">
+        <v>0.8953132396605803</v>
+      </c>
+      <c r="I21">
+        <v>1.127533510704577</v>
+      </c>
+      <c r="J21">
+        <v>1.080251995291118</v>
+      </c>
+      <c r="K21">
+        <v>1.127533510704577</v>
+      </c>
+      <c r="L21">
+        <v>0.8953132396605803</v>
+      </c>
+      <c r="M21">
+        <v>0.9877826174758491</v>
+      </c>
+      <c r="N21">
+        <v>0.9877826174758491</v>
+      </c>
+      <c r="O21">
+        <v>1.026124150757816</v>
+      </c>
+      <c r="P21">
+        <v>1.034366248552092</v>
+      </c>
+      <c r="Q21">
+        <v>1.034366248552091</v>
+      </c>
+      <c r="R21">
+        <v>1.057658064090213</v>
+      </c>
+      <c r="S21">
+        <v>1.057658064090213</v>
+      </c>
+      <c r="T21">
+        <v>0.9737976006397965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.047254677975845</v>
+      </c>
+      <c r="D22">
+        <v>1.027866980765599</v>
+      </c>
+      <c r="E22">
+        <v>0.9139735157150428</v>
+      </c>
+      <c r="F22">
+        <v>0.9830818209775607</v>
+      </c>
+      <c r="G22">
+        <v>1.105868676006457</v>
+      </c>
+      <c r="H22">
+        <v>1.01160124971113</v>
+      </c>
+      <c r="I22">
+        <v>0.9139735157150428</v>
+      </c>
+      <c r="J22">
+        <v>1.105868676006457</v>
+      </c>
+      <c r="K22">
+        <v>0.9139735157150428</v>
+      </c>
+      <c r="L22">
+        <v>1.01160124971113</v>
+      </c>
+      <c r="M22">
+        <v>1.058734962858793</v>
+      </c>
+      <c r="N22">
+        <v>1.058734962858793</v>
+      </c>
+      <c r="O22">
+        <v>1.048445635494395</v>
+      </c>
+      <c r="P22">
+        <v>1.01048114714421</v>
+      </c>
+      <c r="Q22">
+        <v>1.01048114714421</v>
+      </c>
+      <c r="R22">
+        <v>0.9863542392869182</v>
+      </c>
+      <c r="S22">
+        <v>0.9863542392869182</v>
+      </c>
+      <c r="T22">
+        <v>1.014941153525273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.673723764878202</v>
+      </c>
+      <c r="D23">
+        <v>1.102813391086706</v>
+      </c>
+      <c r="E23">
+        <v>1.127529931029186</v>
+      </c>
+      <c r="F23">
+        <v>0.9631475760892617</v>
+      </c>
+      <c r="G23">
+        <v>1.080266239210386</v>
+      </c>
+      <c r="H23">
+        <v>0.8953109169258399</v>
+      </c>
+      <c r="I23">
+        <v>1.127529931029186</v>
+      </c>
+      <c r="J23">
+        <v>1.080266239210386</v>
+      </c>
+      <c r="K23">
+        <v>1.127529931029186</v>
+      </c>
+      <c r="L23">
+        <v>0.8953109169258399</v>
+      </c>
+      <c r="M23">
+        <v>0.9877885780681128</v>
+      </c>
+      <c r="N23">
+        <v>0.9877885780681128</v>
+      </c>
+      <c r="O23">
+        <v>1.026130182407644</v>
+      </c>
+      <c r="P23">
+        <v>1.034369029055137</v>
+      </c>
+      <c r="Q23">
+        <v>1.034369029055137</v>
+      </c>
+      <c r="R23">
+        <v>1.057659254548649</v>
+      </c>
+      <c r="S23">
+        <v>1.057659254548649</v>
+      </c>
+      <c r="T23">
+        <v>0.9737986365365967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.047251050527995</v>
+      </c>
+      <c r="D24">
+        <v>1.027868909376407</v>
+      </c>
+      <c r="E24">
+        <v>0.913972683505371</v>
+      </c>
+      <c r="F24">
+        <v>0.9830813091344336</v>
+      </c>
+      <c r="G24">
+        <v>1.105870336823763</v>
+      </c>
+      <c r="H24">
+        <v>1.011600528441368</v>
+      </c>
+      <c r="I24">
+        <v>0.913972683505371</v>
+      </c>
+      <c r="J24">
+        <v>1.105870336823763</v>
+      </c>
+      <c r="K24">
+        <v>0.913972683505371</v>
+      </c>
+      <c r="L24">
+        <v>1.011600528441368</v>
+      </c>
+      <c r="M24">
+        <v>1.058735432632566</v>
+      </c>
+      <c r="N24">
+        <v>1.058735432632566</v>
+      </c>
+      <c r="O24">
+        <v>1.048446591547179</v>
+      </c>
+      <c r="P24">
+        <v>1.010481182923501</v>
+      </c>
+      <c r="Q24">
+        <v>1.010481182923501</v>
+      </c>
+      <c r="R24">
+        <v>0.9863540580689685</v>
+      </c>
+      <c r="S24">
+        <v>0.9863540580689685</v>
+      </c>
+      <c r="T24">
+        <v>1.014940802968223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.6737186276805958</v>
+      </c>
+      <c r="D25">
+        <v>1.102821476483997</v>
+      </c>
+      <c r="E25">
+        <v>1.127520624668179</v>
+      </c>
+      <c r="F25">
+        <v>0.9631443057013797</v>
+      </c>
+      <c r="G25">
+        <v>1.080281504311605</v>
+      </c>
+      <c r="H25">
+        <v>0.8953089218242102</v>
+      </c>
+      <c r="I25">
+        <v>1.127520624668179</v>
+      </c>
+      <c r="J25">
+        <v>1.080281504311605</v>
+      </c>
+      <c r="K25">
+        <v>1.127520624668179</v>
+      </c>
+      <c r="L25">
+        <v>0.8953089218242102</v>
+      </c>
+      <c r="M25">
+        <v>0.9877952130679077</v>
+      </c>
+      <c r="N25">
+        <v>0.9877952130679077</v>
+      </c>
+      <c r="O25">
+        <v>1.026137300873271</v>
+      </c>
+      <c r="P25">
+        <v>1.034370350267998</v>
+      </c>
+      <c r="Q25">
+        <v>1.034370350267998</v>
+      </c>
+      <c r="R25">
+        <v>1.057657918868044</v>
+      </c>
+      <c r="S25">
+        <v>1.057657918868044</v>
+      </c>
+      <c r="T25">
+        <v>0.9737992434449945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.047247122546089</v>
+      </c>
+      <c r="D26">
+        <v>1.027870616395036</v>
+      </c>
+      <c r="E26">
+        <v>0.9139744428533738</v>
+      </c>
+      <c r="F26">
+        <v>0.9830803311436496</v>
+      </c>
+      <c r="G26">
+        <v>1.105873865051404</v>
+      </c>
+      <c r="H26">
+        <v>1.011598749026731</v>
+      </c>
+      <c r="I26">
+        <v>0.9139744428533738</v>
+      </c>
+      <c r="J26">
+        <v>1.105873865051404</v>
+      </c>
+      <c r="K26">
+        <v>0.9139744428533738</v>
+      </c>
+      <c r="L26">
+        <v>1.011598749026731</v>
+      </c>
+      <c r="M26">
+        <v>1.058736307039067</v>
+      </c>
+      <c r="N26">
+        <v>1.058736307039067</v>
+      </c>
+      <c r="O26">
+        <v>1.048447743491057</v>
+      </c>
+      <c r="P26">
+        <v>1.010482352310503</v>
+      </c>
+      <c r="Q26">
+        <v>1.010482352310503</v>
+      </c>
+      <c r="R26">
+        <v>0.9863553749462206</v>
+      </c>
+      <c r="S26">
+        <v>0.9863553749462206</v>
+      </c>
+      <c r="T26">
+        <v>1.014940854502714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.04552428061397</v>
+      </c>
+      <c r="D27">
+        <v>0.958045039594799</v>
+      </c>
+      <c r="E27">
+        <v>1.026861000861949</v>
+      </c>
+      <c r="F27">
+        <v>1.021810663368955</v>
+      </c>
+      <c r="G27">
+        <v>0.867186858808318</v>
+      </c>
+      <c r="H27">
+        <v>1.020719004920884</v>
+      </c>
+      <c r="I27">
+        <v>1.026861000861949</v>
+      </c>
+      <c r="J27">
+        <v>0.867186858808318</v>
+      </c>
+      <c r="K27">
+        <v>1.026861000861949</v>
+      </c>
+      <c r="L27">
+        <v>1.020719004920884</v>
+      </c>
+      <c r="M27">
+        <v>0.9439529318646012</v>
+      </c>
+      <c r="N27">
+        <v>0.9439529318646012</v>
+      </c>
+      <c r="O27">
+        <v>0.9486503011080005</v>
+      </c>
+      <c r="P27">
+        <v>0.971588954863717</v>
+      </c>
+      <c r="Q27">
+        <v>0.971588954863717</v>
+      </c>
+      <c r="R27">
+        <v>0.985406966363275</v>
+      </c>
+      <c r="S27">
+        <v>0.985406966363275</v>
+      </c>
+      <c r="T27">
+        <v>0.9900244746948127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9241073339474747</v>
+      </c>
+      <c r="D28">
+        <v>1.002272974705977</v>
+      </c>
+      <c r="E28">
+        <v>1.048888571255554</v>
+      </c>
+      <c r="F28">
+        <v>1.002719802142311</v>
+      </c>
+      <c r="G28">
+        <v>0.9902034891245525</v>
+      </c>
+      <c r="H28">
+        <v>0.9842386523665353</v>
+      </c>
+      <c r="I28">
+        <v>1.048888571255554</v>
+      </c>
+      <c r="J28">
+        <v>0.9902034891245525</v>
+      </c>
+      <c r="K28">
+        <v>1.048888571255554</v>
+      </c>
+      <c r="L28">
+        <v>0.9842386523665353</v>
+      </c>
+      <c r="M28">
+        <v>0.9872210707455439</v>
+      </c>
+      <c r="N28">
+        <v>0.9872210707455439</v>
+      </c>
+      <c r="O28">
+        <v>0.9922383720656883</v>
+      </c>
+      <c r="P28">
+        <v>1.007776904248881</v>
+      </c>
+      <c r="Q28">
+        <v>1.007776904248881</v>
+      </c>
+      <c r="R28">
+        <v>1.018054821000549</v>
+      </c>
+      <c r="S28">
+        <v>1.018054821000549</v>
+      </c>
+      <c r="T28">
+        <v>0.992071803923734</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.7202284127805282</v>
+      </c>
+      <c r="D29">
+        <v>1.152291608668004</v>
+      </c>
+      <c r="E29">
+        <v>0.9955413384195659</v>
+      </c>
+      <c r="F29">
+        <v>0.9366730616809061</v>
+      </c>
+      <c r="G29">
+        <v>1.240191224018571</v>
+      </c>
+      <c r="H29">
+        <v>0.9135382595952773</v>
+      </c>
+      <c r="I29">
+        <v>0.9955413384195659</v>
+      </c>
+      <c r="J29">
+        <v>1.240191224018571</v>
+      </c>
+      <c r="K29">
+        <v>0.9955413384195659</v>
+      </c>
+      <c r="L29">
+        <v>0.9135382595952773</v>
+      </c>
+      <c r="M29">
+        <v>1.076864741806924</v>
+      </c>
+      <c r="N29">
+        <v>1.076864741806924</v>
+      </c>
+      <c r="O29">
+        <v>1.102007030760617</v>
+      </c>
+      <c r="P29">
+        <v>1.049756940677805</v>
+      </c>
+      <c r="Q29">
+        <v>1.049756940677805</v>
+      </c>
+      <c r="R29">
+        <v>1.036203040113245</v>
+      </c>
+      <c r="S29">
+        <v>1.036203040113245</v>
+      </c>
+      <c r="T29">
+        <v>0.9930773175271422</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.032543600178742</v>
+        <v>1.234137531327737</v>
       </c>
       <c r="D4">
-        <v>0.9548519765144735</v>
+        <v>0.8865282885859377</v>
       </c>
       <c r="E4">
-        <v>1.040387488042652</v>
+        <v>0.9811733741877069</v>
       </c>
       <c r="F4">
-        <v>1.021151880811885</v>
+        <v>1.045277561526884</v>
       </c>
       <c r="G4">
-        <v>0.9112300285444734</v>
+        <v>0.8406809992115917</v>
       </c>
       <c r="H4">
-        <v>1.013485562399743</v>
+        <v>1.072016406595033</v>
       </c>
       <c r="I4">
-        <v>1.040387488042652</v>
+        <v>0.9811733741877069</v>
       </c>
       <c r="J4">
-        <v>0.9112300285444734</v>
+        <v>0.8406809992115917</v>
       </c>
       <c r="K4">
-        <v>1.040387488042652</v>
+        <v>0.9811733741877069</v>
       </c>
       <c r="L4">
-        <v>1.013485562399743</v>
+        <v>1.072016406595033</v>
       </c>
       <c r="M4">
-        <v>0.9623577954721081</v>
+        <v>0.9563487029033122</v>
       </c>
       <c r="N4">
-        <v>0.9623577954721081</v>
+        <v>0.9563487029033122</v>
       </c>
       <c r="O4">
-        <v>0.9598558558195632</v>
+        <v>0.9330752314641874</v>
       </c>
       <c r="P4">
-        <v>0.9883676929956229</v>
+        <v>0.9646235933314437</v>
       </c>
       <c r="Q4">
-        <v>0.9883676929956229</v>
+        <v>0.9646235933314437</v>
       </c>
       <c r="R4">
-        <v>1.00137264175738</v>
+        <v>0.9687610385455094</v>
       </c>
       <c r="S4">
-        <v>1.00137264175738</v>
+        <v>0.9687610385455094</v>
       </c>
       <c r="T4">
-        <v>0.9956084227486617</v>
+        <v>1.009969026905815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.273332453753596</v>
+        <v>1.144943106969195</v>
       </c>
       <c r="D5">
-        <v>0.864419154963976</v>
+        <v>0.9203713076151725</v>
       </c>
       <c r="E5">
-        <v>0.9845379370749309</v>
+        <v>0.9995923433707575</v>
       </c>
       <c r="F5">
-        <v>1.054093513335739</v>
+        <v>1.032829687895999</v>
       </c>
       <c r="G5">
-        <v>0.8077704244481285</v>
+        <v>0.8809872934933115</v>
       </c>
       <c r="H5">
-        <v>1.083274970007206</v>
+        <v>1.047693654066236</v>
       </c>
       <c r="I5">
-        <v>0.9845379370749309</v>
+        <v>0.9995923433707575</v>
       </c>
       <c r="J5">
-        <v>0.8077704244481285</v>
+        <v>0.8809872934933115</v>
       </c>
       <c r="K5">
-        <v>0.9845379370749309</v>
+        <v>0.9995923433707575</v>
       </c>
       <c r="L5">
-        <v>1.083274970007206</v>
+        <v>1.047693654066236</v>
       </c>
       <c r="M5">
-        <v>0.945522697227667</v>
+        <v>0.9643404737797736</v>
       </c>
       <c r="N5">
-        <v>0.945522697227667</v>
+        <v>0.9643404737797736</v>
       </c>
       <c r="O5">
-        <v>0.91848818313977</v>
+        <v>0.94968408505824</v>
       </c>
       <c r="P5">
-        <v>0.958527777176755</v>
+        <v>0.9760910969767682</v>
       </c>
       <c r="Q5">
-        <v>0.958527777176755</v>
+        <v>0.9760910969767682</v>
       </c>
       <c r="R5">
-        <v>0.9650303171512989</v>
+        <v>0.9819664085752655</v>
       </c>
       <c r="S5">
-        <v>0.9650303171512989</v>
+        <v>0.9819664085752655</v>
       </c>
       <c r="T5">
-        <v>1.011238075597263</v>
+        <v>1.004402898901779</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.092698094569589</v>
+        <v>1.032543600178742</v>
       </c>
       <c r="D6">
-        <v>0.555970003191765</v>
+        <v>0.9548519765144735</v>
       </c>
       <c r="E6">
-        <v>0.825577607218975</v>
+        <v>1.040387488042652</v>
       </c>
       <c r="F6">
-        <v>1.162409887969561</v>
+        <v>1.021151880811885</v>
       </c>
       <c r="G6">
-        <v>0.4484035432504986</v>
+        <v>0.9112300285444734</v>
       </c>
       <c r="H6">
-        <v>1.304538227302852</v>
+        <v>1.013485562399743</v>
       </c>
       <c r="I6">
-        <v>0.825577607218975</v>
+        <v>1.040387488042652</v>
       </c>
       <c r="J6">
-        <v>0.4484035432504986</v>
+        <v>0.9112300285444734</v>
       </c>
       <c r="K6">
-        <v>0.825577607218975</v>
+        <v>1.040387488042652</v>
       </c>
       <c r="L6">
-        <v>1.304538227302852</v>
+        <v>1.013485562399743</v>
       </c>
       <c r="M6">
-        <v>0.8764708852766753</v>
+        <v>0.9623577954721081</v>
       </c>
       <c r="N6">
-        <v>0.8764708852766753</v>
+        <v>0.9623577954721081</v>
       </c>
       <c r="O6">
-        <v>0.7696372579150386</v>
+        <v>0.9598558558195632</v>
       </c>
       <c r="P6">
-        <v>0.8595064592574418</v>
+        <v>0.9883676929956229</v>
       </c>
       <c r="Q6">
-        <v>0.8595064592574418</v>
+        <v>0.9883676929956229</v>
       </c>
       <c r="R6">
-        <v>0.8510242462478251</v>
+        <v>1.00137264175738</v>
       </c>
       <c r="S6">
-        <v>0.8510242462478251</v>
+        <v>1.00137264175738</v>
       </c>
       <c r="T6">
-        <v>1.064932893917207</v>
+        <v>0.9956084227486617</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.006354801698406</v>
+        <v>1.273332453753596</v>
       </c>
       <c r="D7">
-        <v>0.984600039663483</v>
+        <v>0.864419154963976</v>
       </c>
       <c r="E7">
-        <v>1.017427784520411</v>
+        <v>0.9845379370749309</v>
       </c>
       <c r="F7">
-        <v>1.007402564005827</v>
+        <v>1.054093513335739</v>
       </c>
       <c r="G7">
-        <v>0.969078370862234</v>
+        <v>0.8077704244481285</v>
       </c>
       <c r="H7">
-        <v>1.00333811832708</v>
+        <v>1.083274970007206</v>
       </c>
       <c r="I7">
-        <v>1.017427784520411</v>
+        <v>0.9845379370749309</v>
       </c>
       <c r="J7">
-        <v>0.969078370862234</v>
+        <v>0.8077704244481285</v>
       </c>
       <c r="K7">
-        <v>1.017427784520411</v>
+        <v>0.9845379370749309</v>
       </c>
       <c r="L7">
-        <v>1.00333811832708</v>
+        <v>1.083274970007206</v>
       </c>
       <c r="M7">
-        <v>0.9862082445946572</v>
+        <v>0.945522697227667</v>
       </c>
       <c r="N7">
-        <v>0.9862082445946572</v>
+        <v>0.945522697227667</v>
       </c>
       <c r="O7">
-        <v>0.9856721762842658</v>
+        <v>0.91848818313977</v>
       </c>
       <c r="P7">
-        <v>0.9966147579032417</v>
+        <v>0.958527777176755</v>
       </c>
       <c r="Q7">
-        <v>0.9966147579032416</v>
+        <v>0.958527777176755</v>
       </c>
       <c r="R7">
-        <v>1.001818014557534</v>
+        <v>0.9650303171512989</v>
       </c>
       <c r="S7">
-        <v>1.001818014557534</v>
+        <v>0.9650303171512989</v>
       </c>
       <c r="T7">
-        <v>0.9980336131795734</v>
+        <v>1.011238075597263</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001739214522223</v>
+        <v>2.092698094569589</v>
       </c>
       <c r="D8">
-        <v>0.9988549456753875</v>
+        <v>0.555970003191765</v>
       </c>
       <c r="E8">
-        <v>1.000422824834236</v>
+        <v>0.825577607218975</v>
       </c>
       <c r="F8">
-        <v>1.000476729666993</v>
+        <v>1.162409887969561</v>
       </c>
       <c r="G8">
-        <v>0.9981248686568673</v>
+        <v>0.4484035432504986</v>
       </c>
       <c r="H8">
-        <v>1.000490758278101</v>
+        <v>1.304538227302852</v>
       </c>
       <c r="I8">
-        <v>1.000422824834236</v>
+        <v>0.825577607218975</v>
       </c>
       <c r="J8">
-        <v>0.9981248686568673</v>
+        <v>0.4484035432504986</v>
       </c>
       <c r="K8">
-        <v>1.000422824834236</v>
+        <v>0.825577607218975</v>
       </c>
       <c r="L8">
-        <v>1.000490758278101</v>
+        <v>1.304538227302852</v>
       </c>
       <c r="M8">
-        <v>0.999307813467484</v>
+        <v>0.8764708852766753</v>
       </c>
       <c r="N8">
-        <v>0.999307813467484</v>
+        <v>0.8764708852766753</v>
       </c>
       <c r="O8">
-        <v>0.9991568575367852</v>
+        <v>0.7696372579150386</v>
       </c>
       <c r="P8">
-        <v>0.9996794839230682</v>
+        <v>0.8595064592574418</v>
       </c>
       <c r="Q8">
-        <v>0.9996794839230682</v>
+        <v>0.8595064592574418</v>
       </c>
       <c r="R8">
-        <v>0.9998653191508602</v>
+        <v>0.8510242462478251</v>
       </c>
       <c r="S8">
-        <v>0.9998653191508602</v>
+        <v>0.8510242462478251</v>
       </c>
       <c r="T8">
-        <v>1.000018223605635</v>
+        <v>1.064932893917207</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.010734741634625</v>
+        <v>1.006354801698406</v>
       </c>
       <c r="D9">
-        <v>0.9726592396014222</v>
+        <v>0.984600039663483</v>
       </c>
       <c r="E9">
-        <v>1.031677234039843</v>
+        <v>1.017427784520411</v>
       </c>
       <c r="F9">
-        <v>1.01308062039603</v>
+        <v>1.007402564005827</v>
       </c>
       <c r="G9">
-        <v>0.9455176555206817</v>
+        <v>0.969078370862234</v>
       </c>
       <c r="H9">
-        <v>1.005584259312403</v>
+        <v>1.00333811832708</v>
       </c>
       <c r="I9">
-        <v>1.031677234039843</v>
+        <v>1.017427784520411</v>
       </c>
       <c r="J9">
-        <v>0.9455176555206817</v>
+        <v>0.969078370862234</v>
       </c>
       <c r="K9">
-        <v>1.031677234039843</v>
+        <v>1.017427784520411</v>
       </c>
       <c r="L9">
-        <v>1.005584259312403</v>
+        <v>1.00333811832708</v>
       </c>
       <c r="M9">
-        <v>0.9755509574165423</v>
+        <v>0.9862082445946572</v>
       </c>
       <c r="N9">
-        <v>0.9755509574165423</v>
+        <v>0.9862082445946572</v>
       </c>
       <c r="O9">
-        <v>0.9745870514781689</v>
+        <v>0.9856721762842658</v>
       </c>
       <c r="P9">
-        <v>0.994259716290976</v>
+        <v>0.9966147579032417</v>
       </c>
       <c r="Q9">
-        <v>0.994259716290976</v>
+        <v>0.9966147579032416</v>
       </c>
       <c r="R9">
-        <v>1.003614095728193</v>
+        <v>1.001818014557534</v>
       </c>
       <c r="S9">
-        <v>1.003614095728193</v>
+        <v>1.001818014557534</v>
       </c>
       <c r="T9">
-        <v>0.9965422917508343</v>
+        <v>0.9980336131795734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.117429454683098</v>
+        <v>1.001739214522223</v>
       </c>
       <c r="D10">
-        <v>0.5493021114501393</v>
+        <v>0.9988549456753875</v>
       </c>
       <c r="E10">
-        <v>0.8177314933507293</v>
+        <v>1.000422824834236</v>
       </c>
       <c r="F10">
-        <v>1.164004490692147</v>
+        <v>1.000476729666993</v>
       </c>
       <c r="G10">
-        <v>0.4474643335517584</v>
+        <v>0.9981248686568673</v>
       </c>
       <c r="H10">
-        <v>1.310086865324251</v>
+        <v>1.000490758278101</v>
       </c>
       <c r="I10">
-        <v>0.8177314933507293</v>
+        <v>1.000422824834236</v>
       </c>
       <c r="J10">
-        <v>0.4474643335517584</v>
+        <v>0.9981248686568673</v>
       </c>
       <c r="K10">
-        <v>0.8177314933507293</v>
+        <v>1.000422824834236</v>
       </c>
       <c r="L10">
-        <v>1.310086865324251</v>
+        <v>1.000490758278101</v>
       </c>
       <c r="M10">
-        <v>0.8787755994380044</v>
+        <v>0.999307813467484</v>
       </c>
       <c r="N10">
-        <v>0.8787755994380044</v>
+        <v>0.999307813467484</v>
       </c>
       <c r="O10">
-        <v>0.7689511034420494</v>
+        <v>0.9991568575367852</v>
       </c>
       <c r="P10">
-        <v>0.8584275640755794</v>
+        <v>0.9996794839230682</v>
       </c>
       <c r="Q10">
-        <v>0.8584275640755794</v>
+        <v>0.9996794839230682</v>
       </c>
       <c r="R10">
-        <v>0.8482535463943669</v>
+        <v>0.9998653191508602</v>
       </c>
       <c r="S10">
-        <v>0.8482535463943669</v>
+        <v>0.9998653191508602</v>
       </c>
       <c r="T10">
-        <v>1.067669791508687</v>
+        <v>1.000018223605635</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.016248643687483</v>
+        <v>1.010734741634625</v>
       </c>
       <c r="D11">
-        <v>0.9567731010781975</v>
+        <v>0.9726592396014222</v>
       </c>
       <c r="E11">
-        <v>1.052128950209646</v>
+        <v>1.031677234039843</v>
       </c>
       <c r="F11">
-        <v>1.02077729684902</v>
+        <v>1.01308062039603</v>
       </c>
       <c r="G11">
-        <v>0.909825494430114</v>
+        <v>0.9455176555206817</v>
       </c>
       <c r="H11">
-        <v>1.007979441447469</v>
+        <v>1.005584259312403</v>
       </c>
       <c r="I11">
-        <v>1.052128950209646</v>
+        <v>1.031677234039843</v>
       </c>
       <c r="J11">
-        <v>0.909825494430114</v>
+        <v>0.9455176555206817</v>
       </c>
       <c r="K11">
-        <v>1.052128950209646</v>
+        <v>1.031677234039843</v>
       </c>
       <c r="L11">
-        <v>1.007979441447469</v>
+        <v>1.005584259312403</v>
       </c>
       <c r="M11">
-        <v>0.9589024679387916</v>
+        <v>0.9755509574165423</v>
       </c>
       <c r="N11">
-        <v>0.9589024679387916</v>
+        <v>0.9755509574165423</v>
       </c>
       <c r="O11">
-        <v>0.9581926789852603</v>
+        <v>0.9745870514781689</v>
       </c>
       <c r="P11">
-        <v>0.9899779620290764</v>
+        <v>0.994259716290976</v>
       </c>
       <c r="Q11">
-        <v>0.9899779620290764</v>
+        <v>0.994259716290976</v>
       </c>
       <c r="R11">
-        <v>1.005515709074219</v>
+        <v>1.003614095728193</v>
       </c>
       <c r="S11">
-        <v>1.005515709074219</v>
+        <v>1.003614095728193</v>
       </c>
       <c r="T11">
-        <v>0.9939554879503216</v>
+        <v>0.9965422917508343</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.333885439905258</v>
+        <v>2.117429454683098</v>
       </c>
       <c r="D12">
-        <v>0.863062196831579</v>
+        <v>0.5493021114501393</v>
       </c>
       <c r="E12">
-        <v>0.9418948909368456</v>
+        <v>0.8177314933507293</v>
       </c>
       <c r="F12">
-        <v>1.050664853073686</v>
+        <v>1.164004490692147</v>
       </c>
       <c r="G12">
-        <v>0.8382013347410525</v>
+        <v>0.4474643335517584</v>
       </c>
       <c r="H12">
-        <v>1.096192910494738</v>
+        <v>1.310086865324251</v>
       </c>
       <c r="I12">
-        <v>0.9418948909368456</v>
+        <v>0.8177314933507293</v>
       </c>
       <c r="J12">
-        <v>0.8382013347410525</v>
+        <v>0.4474643335517584</v>
       </c>
       <c r="K12">
-        <v>0.9418948909368456</v>
+        <v>0.8177314933507293</v>
       </c>
       <c r="L12">
-        <v>1.096192910494738</v>
+        <v>1.310086865324251</v>
       </c>
       <c r="M12">
-        <v>0.9671971226178953</v>
+        <v>0.8787755994380044</v>
       </c>
       <c r="N12">
-        <v>0.9671971226178953</v>
+        <v>0.8787755994380044</v>
       </c>
       <c r="O12">
-        <v>0.9324854806891233</v>
+        <v>0.7689511034420494</v>
       </c>
       <c r="P12">
-        <v>0.9587630453908788</v>
+        <v>0.8584275640755794</v>
       </c>
       <c r="Q12">
-        <v>0.9587630453908785</v>
+        <v>0.8584275640755794</v>
       </c>
       <c r="R12">
-        <v>0.9545460067773703</v>
+        <v>0.8482535463943669</v>
       </c>
       <c r="S12">
-        <v>0.9545460067773703</v>
+        <v>0.8482535463943669</v>
       </c>
       <c r="T12">
-        <v>1.020650270997193</v>
+        <v>1.067669791508687</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8701707749200813</v>
+        <v>1.016248643687483</v>
       </c>
       <c r="D13">
-        <v>1.091556186920055</v>
+        <v>0.9567731010781975</v>
       </c>
       <c r="E13">
-        <v>0.9761993859988995</v>
+        <v>1.052128950209646</v>
       </c>
       <c r="F13">
-        <v>0.9583925387633687</v>
+        <v>1.02077729684902</v>
       </c>
       <c r="G13">
-        <v>1.168699779922548</v>
+        <v>0.909825494430114</v>
       </c>
       <c r="H13">
-        <v>0.951029032772059</v>
+        <v>1.007979441447469</v>
       </c>
       <c r="I13">
-        <v>0.9761993859988995</v>
+        <v>1.052128950209646</v>
       </c>
       <c r="J13">
-        <v>1.168699779922548</v>
+        <v>0.909825494430114</v>
       </c>
       <c r="K13">
-        <v>0.9761993859988995</v>
+        <v>1.052128950209646</v>
       </c>
       <c r="L13">
-        <v>0.951029032772059</v>
+        <v>1.007979441447469</v>
       </c>
       <c r="M13">
-        <v>1.059864406347304</v>
+        <v>0.9589024679387916</v>
       </c>
       <c r="N13">
-        <v>1.059864406347304</v>
+        <v>0.9589024679387916</v>
       </c>
       <c r="O13">
-        <v>1.070428333204887</v>
+        <v>0.9581926789852603</v>
       </c>
       <c r="P13">
-        <v>1.031976066231169</v>
+        <v>0.9899779620290764</v>
       </c>
       <c r="Q13">
-        <v>1.031976066231169</v>
+        <v>0.9899779620290764</v>
       </c>
       <c r="R13">
-        <v>1.018031896173102</v>
+        <v>1.005515709074219</v>
       </c>
       <c r="S13">
-        <v>1.018031896173102</v>
+        <v>1.005515709074219</v>
       </c>
       <c r="T13">
-        <v>1.002674616549502</v>
+        <v>0.9939554879503216</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.955281000000005</v>
+        <v>1.333885439905258</v>
       </c>
       <c r="D14">
-        <v>0.2238942000000001</v>
+        <v>0.863062196831579</v>
       </c>
       <c r="E14">
-        <v>0.6692091899999988</v>
+        <v>0.9418948909368456</v>
       </c>
       <c r="F14">
-        <v>1.280074200000001</v>
+        <v>1.050664853073686</v>
       </c>
       <c r="G14">
-        <v>0.05435712199999995</v>
+        <v>0.8382013347410525</v>
       </c>
       <c r="H14">
-        <v>1.538146999999998</v>
+        <v>1.096192910494738</v>
       </c>
       <c r="I14">
-        <v>0.6692091899999988</v>
+        <v>0.9418948909368456</v>
       </c>
       <c r="J14">
-        <v>0.05435712199999995</v>
+        <v>0.8382013347410525</v>
       </c>
       <c r="K14">
-        <v>0.6692091899999988</v>
+        <v>0.9418948909368456</v>
       </c>
       <c r="L14">
-        <v>1.538146999999998</v>
+        <v>1.096192910494738</v>
       </c>
       <c r="M14">
-        <v>0.7962520609999991</v>
+        <v>0.9671971226178953</v>
       </c>
       <c r="N14">
-        <v>0.7962520609999991</v>
+        <v>0.9671971226178953</v>
       </c>
       <c r="O14">
-        <v>0.6054661073333328</v>
+        <v>0.9324854806891233</v>
       </c>
       <c r="P14">
-        <v>0.7539044373333322</v>
+        <v>0.9587630453908788</v>
       </c>
       <c r="Q14">
-        <v>0.7539044373333325</v>
+        <v>0.9587630453908785</v>
       </c>
       <c r="R14">
-        <v>0.732730625499999</v>
+        <v>0.9545460067773703</v>
       </c>
       <c r="S14">
-        <v>0.732730625499999</v>
+        <v>0.9545460067773703</v>
       </c>
       <c r="T14">
-        <v>1.120160452000001</v>
+        <v>1.020650270997193</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.1036882</v>
+        <v>0.8701707749200813</v>
       </c>
       <c r="D15">
-        <v>0.67050347</v>
+        <v>1.091556186920055</v>
       </c>
       <c r="E15">
-        <v>1.4051854</v>
+        <v>0.9761993859988995</v>
       </c>
       <c r="F15">
-        <v>1.1574243</v>
+        <v>0.9583925387633687</v>
       </c>
       <c r="G15">
-        <v>0.33396861</v>
+        <v>1.168699779922548</v>
       </c>
       <c r="H15">
-        <v>1.0615977</v>
+        <v>0.951029032772059</v>
       </c>
       <c r="I15">
-        <v>1.4051854</v>
+        <v>0.9761993859988995</v>
       </c>
       <c r="J15">
-        <v>0.33396861</v>
+        <v>1.168699779922548</v>
       </c>
       <c r="K15">
-        <v>1.4051854</v>
+        <v>0.9761993859988995</v>
       </c>
       <c r="L15">
-        <v>1.0615977</v>
+        <v>0.951029032772059</v>
       </c>
       <c r="M15">
-        <v>0.697783155</v>
+        <v>1.059864406347304</v>
       </c>
       <c r="N15">
-        <v>0.697783155</v>
+        <v>1.059864406347304</v>
       </c>
       <c r="O15">
-        <v>0.6886899266666666</v>
+        <v>1.070428333204887</v>
       </c>
       <c r="P15">
-        <v>0.9335839033333334</v>
+        <v>1.031976066231169</v>
       </c>
       <c r="Q15">
-        <v>0.9335839033333334</v>
+        <v>1.031976066231169</v>
       </c>
       <c r="R15">
-        <v>1.0514842775</v>
+        <v>1.018031896173102</v>
       </c>
       <c r="S15">
-        <v>1.0514842775</v>
+        <v>1.018031896173102</v>
       </c>
       <c r="T15">
-        <v>0.9553946133333332</v>
+        <v>1.002674616549502</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.1036579</v>
+        <v>2.955281000000005</v>
       </c>
       <c r="D16">
-        <v>0.67051816</v>
+        <v>0.2238942000000001</v>
       </c>
       <c r="E16">
-        <v>1.4051849</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="F16">
-        <v>1.157419</v>
+        <v>1.280074200000001</v>
       </c>
       <c r="G16">
-        <v>0.33398483</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="H16">
-        <v>1.0615906</v>
+        <v>1.538146999999998</v>
       </c>
       <c r="I16">
-        <v>1.4051849</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="J16">
-        <v>0.33398483</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="K16">
-        <v>1.4051849</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="L16">
-        <v>1.0615906</v>
+        <v>1.538146999999998</v>
       </c>
       <c r="M16">
-        <v>0.697787715</v>
+        <v>0.7962520609999991</v>
       </c>
       <c r="N16">
-        <v>0.697787715</v>
+        <v>0.7962520609999991</v>
       </c>
       <c r="O16">
-        <v>0.6886978633333333</v>
+        <v>0.6054661073333328</v>
       </c>
       <c r="P16">
-        <v>0.9335867766666667</v>
+        <v>0.7539044373333322</v>
       </c>
       <c r="Q16">
-        <v>0.9335867766666667</v>
+        <v>0.7539044373333325</v>
       </c>
       <c r="R16">
-        <v>1.0514863075</v>
+        <v>0.732730625499999</v>
       </c>
       <c r="S16">
-        <v>1.0514863075</v>
+        <v>0.732730625499999</v>
       </c>
       <c r="T16">
-        <v>0.9553925649999999</v>
+        <v>1.120160452000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.97204921</v>
+        <v>1.1036882</v>
       </c>
       <c r="D17">
-        <v>1.2398743</v>
+        <v>0.67050347</v>
       </c>
       <c r="E17">
-        <v>0.63807341</v>
+        <v>1.4051854</v>
       </c>
       <c r="F17">
-        <v>0.88031033</v>
+        <v>1.1574243</v>
       </c>
       <c r="G17">
-        <v>1.5866994</v>
+        <v>0.33396861</v>
       </c>
       <c r="H17">
-        <v>0.9823827800000001</v>
+        <v>1.0615977</v>
       </c>
       <c r="I17">
-        <v>0.63807341</v>
+        <v>1.4051854</v>
       </c>
       <c r="J17">
-        <v>1.5866994</v>
+        <v>0.33396861</v>
       </c>
       <c r="K17">
-        <v>0.63807341</v>
+        <v>1.4051854</v>
       </c>
       <c r="L17">
-        <v>0.9823827800000001</v>
+        <v>1.0615977</v>
       </c>
       <c r="M17">
-        <v>1.28454109</v>
+        <v>0.697783155</v>
       </c>
       <c r="N17">
-        <v>1.28454109</v>
+        <v>0.697783155</v>
       </c>
       <c r="O17">
-        <v>1.26965216</v>
+        <v>0.6886899266666666</v>
       </c>
       <c r="P17">
-        <v>1.069051863333333</v>
+        <v>0.9335839033333334</v>
       </c>
       <c r="Q17">
-        <v>1.069051863333333</v>
+        <v>0.9335839033333334</v>
       </c>
       <c r="R17">
-        <v>0.9613072499999999</v>
+        <v>1.0514842775</v>
       </c>
       <c r="S17">
-        <v>0.9613072499999999</v>
+        <v>1.0514842775</v>
       </c>
       <c r="T17">
-        <v>1.049898238333333</v>
+        <v>0.9553946133333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.100850016438356</v>
+        <v>1.1036579</v>
       </c>
       <c r="D18">
-        <v>0.6721108505479451</v>
+        <v>0.67051816</v>
       </c>
       <c r="E18">
-        <v>1.401357578082191</v>
+        <v>1.4051849</v>
       </c>
       <c r="F18">
-        <v>1.158574768493151</v>
+        <v>1.157419</v>
       </c>
       <c r="G18">
-        <v>0.3333027946575342</v>
+        <v>0.33398483</v>
       </c>
       <c r="H18">
-        <v>1.060236223287672</v>
+        <v>1.0615906</v>
       </c>
       <c r="I18">
-        <v>1.401357578082191</v>
+        <v>1.4051849</v>
       </c>
       <c r="J18">
-        <v>0.3333027946575342</v>
+        <v>0.33398483</v>
       </c>
       <c r="K18">
-        <v>1.401357578082191</v>
+        <v>1.4051849</v>
       </c>
       <c r="L18">
-        <v>1.060236223287672</v>
+        <v>1.0615906</v>
       </c>
       <c r="M18">
-        <v>0.696769508972603</v>
+        <v>0.697787715</v>
       </c>
       <c r="N18">
-        <v>0.696769508972603</v>
+        <v>0.697787715</v>
       </c>
       <c r="O18">
-        <v>0.6885499561643837</v>
+        <v>0.6886978633333333</v>
       </c>
       <c r="P18">
-        <v>0.9316321986757993</v>
+        <v>0.9335867766666667</v>
       </c>
       <c r="Q18">
-        <v>0.9316321986757993</v>
+        <v>0.9335867766666667</v>
       </c>
       <c r="R18">
-        <v>1.049063543527397</v>
+        <v>1.0514863075</v>
       </c>
       <c r="S18">
-        <v>1.049063543527397</v>
+        <v>1.0514863075</v>
       </c>
       <c r="T18">
-        <v>0.9544053719178084</v>
+        <v>0.9553925649999999</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.27279937</v>
+        <v>0.97204921</v>
       </c>
       <c r="D19">
-        <v>0.86449466</v>
+        <v>1.2398743</v>
       </c>
       <c r="E19">
-        <v>0.9856860389473683</v>
+        <v>0.63807341</v>
       </c>
       <c r="F19">
-        <v>1.053654772631579</v>
+        <v>0.88031033</v>
       </c>
       <c r="G19">
-        <v>0.8084716734736841</v>
+        <v>1.5866994</v>
       </c>
       <c r="H19">
-        <v>1.083273490526316</v>
+        <v>0.9823827800000001</v>
       </c>
       <c r="I19">
-        <v>0.9856860389473683</v>
+        <v>0.63807341</v>
       </c>
       <c r="J19">
-        <v>0.8084716734736841</v>
+        <v>1.5866994</v>
       </c>
       <c r="K19">
-        <v>0.9856860389473683</v>
+        <v>0.63807341</v>
       </c>
       <c r="L19">
-        <v>1.083273490526316</v>
+        <v>0.9823827800000001</v>
       </c>
       <c r="M19">
-        <v>0.945872582</v>
+        <v>1.28454109</v>
       </c>
       <c r="N19">
-        <v>0.945872582</v>
+        <v>1.28454109</v>
       </c>
       <c r="O19">
-        <v>0.9187466080000001</v>
+        <v>1.26965216</v>
       </c>
       <c r="P19">
-        <v>0.9591437343157895</v>
+        <v>1.069051863333333</v>
       </c>
       <c r="Q19">
-        <v>0.9591437343157895</v>
+        <v>1.069051863333333</v>
       </c>
       <c r="R19">
-        <v>0.9657793104736841</v>
+        <v>0.9613072499999999</v>
       </c>
       <c r="S19">
-        <v>0.9657793104736841</v>
+        <v>0.9613072499999999</v>
       </c>
       <c r="T19">
-        <v>1.011396667596491</v>
+        <v>1.049898238333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.272796512105263</v>
+        <v>1.100850016438356</v>
       </c>
       <c r="D20">
-        <v>0.8644998310526317</v>
+        <v>0.6721108505479451</v>
       </c>
       <c r="E20">
-        <v>0.9856801668421052</v>
+        <v>1.401357578082191</v>
       </c>
       <c r="F20">
-        <v>1.053652448947369</v>
+        <v>1.158574768493151</v>
       </c>
       <c r="G20">
-        <v>0.8084809749473685</v>
+        <v>0.3333027946575342</v>
       </c>
       <c r="H20">
-        <v>1.083272633157895</v>
+        <v>1.060236223287672</v>
       </c>
       <c r="I20">
-        <v>0.9856801668421052</v>
+        <v>1.401357578082191</v>
       </c>
       <c r="J20">
-        <v>0.8084809749473685</v>
+        <v>0.3333027946575342</v>
       </c>
       <c r="K20">
-        <v>0.9856801668421052</v>
+        <v>1.401357578082191</v>
       </c>
       <c r="L20">
-        <v>1.083272633157895</v>
+        <v>1.060236223287672</v>
       </c>
       <c r="M20">
-        <v>0.9458768040526317</v>
+        <v>0.696769508972603</v>
       </c>
       <c r="N20">
-        <v>0.9458768040526317</v>
+        <v>0.696769508972603</v>
       </c>
       <c r="O20">
-        <v>0.918751146385965</v>
+        <v>0.6885499561643837</v>
       </c>
       <c r="P20">
-        <v>0.9591445916491229</v>
+        <v>0.9316321986757993</v>
       </c>
       <c r="Q20">
-        <v>0.9591445916491229</v>
+        <v>0.9316321986757993</v>
       </c>
       <c r="R20">
-        <v>0.9657784854473686</v>
+        <v>1.049063543527397</v>
       </c>
       <c r="S20">
-        <v>0.9657784854473686</v>
+        <v>1.049063543527397</v>
       </c>
       <c r="T20">
-        <v>1.011397094508772</v>
+        <v>0.9544053719178084</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6737285090612065</v>
+        <v>1.27279937</v>
       </c>
       <c r="D21">
-        <v>1.102807217321749</v>
+        <v>0.86449466</v>
       </c>
       <c r="E21">
-        <v>1.127533510704577</v>
+        <v>0.9856860389473683</v>
       </c>
       <c r="F21">
-        <v>0.9631511317995493</v>
+        <v>1.053654772631579</v>
       </c>
       <c r="G21">
-        <v>1.080251995291118</v>
+        <v>0.8084716734736841</v>
       </c>
       <c r="H21">
-        <v>0.8953132396605803</v>
+        <v>1.083273490526316</v>
       </c>
       <c r="I21">
-        <v>1.127533510704577</v>
+        <v>0.9856860389473683</v>
       </c>
       <c r="J21">
-        <v>1.080251995291118</v>
+        <v>0.8084716734736841</v>
       </c>
       <c r="K21">
-        <v>1.127533510704577</v>
+        <v>0.9856860389473683</v>
       </c>
       <c r="L21">
-        <v>0.8953132396605803</v>
+        <v>1.083273490526316</v>
       </c>
       <c r="M21">
-        <v>0.9877826174758491</v>
+        <v>0.945872582</v>
       </c>
       <c r="N21">
-        <v>0.9877826174758491</v>
+        <v>0.945872582</v>
       </c>
       <c r="O21">
-        <v>1.026124150757816</v>
+        <v>0.9187466080000001</v>
       </c>
       <c r="P21">
-        <v>1.034366248552092</v>
+        <v>0.9591437343157895</v>
       </c>
       <c r="Q21">
-        <v>1.034366248552091</v>
+        <v>0.9591437343157895</v>
       </c>
       <c r="R21">
-        <v>1.057658064090213</v>
+        <v>0.9657793104736841</v>
       </c>
       <c r="S21">
-        <v>1.057658064090213</v>
+        <v>0.9657793104736841</v>
       </c>
       <c r="T21">
-        <v>0.9737976006397965</v>
+        <v>1.011396667596491</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.047254677975845</v>
+        <v>1.272796512105263</v>
       </c>
       <c r="D22">
-        <v>1.027866980765599</v>
+        <v>0.8644998310526317</v>
       </c>
       <c r="E22">
-        <v>0.9139735157150428</v>
+        <v>0.9856801668421052</v>
       </c>
       <c r="F22">
-        <v>0.9830818209775607</v>
+        <v>1.053652448947369</v>
       </c>
       <c r="G22">
-        <v>1.105868676006457</v>
+        <v>0.8084809749473685</v>
       </c>
       <c r="H22">
-        <v>1.01160124971113</v>
+        <v>1.083272633157895</v>
       </c>
       <c r="I22">
-        <v>0.9139735157150428</v>
+        <v>0.9856801668421052</v>
       </c>
       <c r="J22">
-        <v>1.105868676006457</v>
+        <v>0.8084809749473685</v>
       </c>
       <c r="K22">
-        <v>0.9139735157150428</v>
+        <v>0.9856801668421052</v>
       </c>
       <c r="L22">
-        <v>1.01160124971113</v>
+        <v>1.083272633157895</v>
       </c>
       <c r="M22">
-        <v>1.058734962858793</v>
+        <v>0.9458768040526317</v>
       </c>
       <c r="N22">
-        <v>1.058734962858793</v>
+        <v>0.9458768040526317</v>
       </c>
       <c r="O22">
-        <v>1.048445635494395</v>
+        <v>0.918751146385965</v>
       </c>
       <c r="P22">
-        <v>1.01048114714421</v>
+        <v>0.9591445916491229</v>
       </c>
       <c r="Q22">
-        <v>1.01048114714421</v>
+        <v>0.9591445916491229</v>
       </c>
       <c r="R22">
-        <v>0.9863542392869182</v>
+        <v>0.9657784854473686</v>
       </c>
       <c r="S22">
-        <v>0.9863542392869182</v>
+        <v>0.9657784854473686</v>
       </c>
       <c r="T22">
-        <v>1.014941153525273</v>
+        <v>1.011397094508772</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.673723764878202</v>
+        <v>0.6737285090612065</v>
       </c>
       <c r="D23">
-        <v>1.102813391086706</v>
+        <v>1.102807217321749</v>
       </c>
       <c r="E23">
-        <v>1.127529931029186</v>
+        <v>1.127533510704577</v>
       </c>
       <c r="F23">
-        <v>0.9631475760892617</v>
+        <v>0.9631511317995493</v>
       </c>
       <c r="G23">
-        <v>1.080266239210386</v>
+        <v>1.080251995291118</v>
       </c>
       <c r="H23">
-        <v>0.8953109169258399</v>
+        <v>0.8953132396605803</v>
       </c>
       <c r="I23">
-        <v>1.127529931029186</v>
+        <v>1.127533510704577</v>
       </c>
       <c r="J23">
-        <v>1.080266239210386</v>
+        <v>1.080251995291118</v>
       </c>
       <c r="K23">
-        <v>1.127529931029186</v>
+        <v>1.127533510704577</v>
       </c>
       <c r="L23">
-        <v>0.8953109169258399</v>
+        <v>0.8953132396605803</v>
       </c>
       <c r="M23">
-        <v>0.9877885780681128</v>
+        <v>0.9877826174758491</v>
       </c>
       <c r="N23">
-        <v>0.9877885780681128</v>
+        <v>0.9877826174758491</v>
       </c>
       <c r="O23">
-        <v>1.026130182407644</v>
+        <v>1.026124150757816</v>
       </c>
       <c r="P23">
-        <v>1.034369029055137</v>
+        <v>1.034366248552092</v>
       </c>
       <c r="Q23">
-        <v>1.034369029055137</v>
+        <v>1.034366248552091</v>
       </c>
       <c r="R23">
-        <v>1.057659254548649</v>
+        <v>1.057658064090213</v>
       </c>
       <c r="S23">
-        <v>1.057659254548649</v>
+        <v>1.057658064090213</v>
       </c>
       <c r="T23">
-        <v>0.9737986365365967</v>
+        <v>0.9737976006397965</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.047251050527995</v>
+        <v>1.047254677975845</v>
       </c>
       <c r="D24">
-        <v>1.027868909376407</v>
+        <v>1.027866980765599</v>
       </c>
       <c r="E24">
-        <v>0.913972683505371</v>
+        <v>0.9139735157150428</v>
       </c>
       <c r="F24">
-        <v>0.9830813091344336</v>
+        <v>0.9830818209775607</v>
       </c>
       <c r="G24">
-        <v>1.105870336823763</v>
+        <v>1.105868676006457</v>
       </c>
       <c r="H24">
-        <v>1.011600528441368</v>
+        <v>1.01160124971113</v>
       </c>
       <c r="I24">
-        <v>0.913972683505371</v>
+        <v>0.9139735157150428</v>
       </c>
       <c r="J24">
-        <v>1.105870336823763</v>
+        <v>1.105868676006457</v>
       </c>
       <c r="K24">
-        <v>0.913972683505371</v>
+        <v>0.9139735157150428</v>
       </c>
       <c r="L24">
-        <v>1.011600528441368</v>
+        <v>1.01160124971113</v>
       </c>
       <c r="M24">
-        <v>1.058735432632566</v>
+        <v>1.058734962858793</v>
       </c>
       <c r="N24">
-        <v>1.058735432632566</v>
+        <v>1.058734962858793</v>
       </c>
       <c r="O24">
-        <v>1.048446591547179</v>
+        <v>1.048445635494395</v>
       </c>
       <c r="P24">
-        <v>1.010481182923501</v>
+        <v>1.01048114714421</v>
       </c>
       <c r="Q24">
-        <v>1.010481182923501</v>
+        <v>1.01048114714421</v>
       </c>
       <c r="R24">
-        <v>0.9863540580689685</v>
+        <v>0.9863542392869182</v>
       </c>
       <c r="S24">
-        <v>0.9863540580689685</v>
+        <v>0.9863542392869182</v>
       </c>
       <c r="T24">
-        <v>1.014940802968223</v>
+        <v>1.014941153525273</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6737186276805958</v>
+        <v>0.673723764878202</v>
       </c>
       <c r="D25">
-        <v>1.102821476483997</v>
+        <v>1.102813391086706</v>
       </c>
       <c r="E25">
-        <v>1.127520624668179</v>
+        <v>1.127529931029186</v>
       </c>
       <c r="F25">
-        <v>0.9631443057013797</v>
+        <v>0.9631475760892617</v>
       </c>
       <c r="G25">
-        <v>1.080281504311605</v>
+        <v>1.080266239210386</v>
       </c>
       <c r="H25">
-        <v>0.8953089218242102</v>
+        <v>0.8953109169258399</v>
       </c>
       <c r="I25">
-        <v>1.127520624668179</v>
+        <v>1.127529931029186</v>
       </c>
       <c r="J25">
-        <v>1.080281504311605</v>
+        <v>1.080266239210386</v>
       </c>
       <c r="K25">
-        <v>1.127520624668179</v>
+        <v>1.127529931029186</v>
       </c>
       <c r="L25">
-        <v>0.8953089218242102</v>
+        <v>0.8953109169258399</v>
       </c>
       <c r="M25">
-        <v>0.9877952130679077</v>
+        <v>0.9877885780681128</v>
       </c>
       <c r="N25">
-        <v>0.9877952130679077</v>
+        <v>0.9877885780681128</v>
       </c>
       <c r="O25">
-        <v>1.026137300873271</v>
+        <v>1.026130182407644</v>
       </c>
       <c r="P25">
-        <v>1.034370350267998</v>
+        <v>1.034369029055137</v>
       </c>
       <c r="Q25">
-        <v>1.034370350267998</v>
+        <v>1.034369029055137</v>
       </c>
       <c r="R25">
-        <v>1.057657918868044</v>
+        <v>1.057659254548649</v>
       </c>
       <c r="S25">
-        <v>1.057657918868044</v>
+        <v>1.057659254548649</v>
       </c>
       <c r="T25">
-        <v>0.9737992434449945</v>
+        <v>0.9737986365365967</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.047247122546089</v>
+        <v>1.047251050527995</v>
       </c>
       <c r="D26">
-        <v>1.027870616395036</v>
+        <v>1.027868909376407</v>
       </c>
       <c r="E26">
-        <v>0.9139744428533738</v>
+        <v>0.913972683505371</v>
       </c>
       <c r="F26">
-        <v>0.9830803311436496</v>
+        <v>0.9830813091344336</v>
       </c>
       <c r="G26">
-        <v>1.105873865051404</v>
+        <v>1.105870336823763</v>
       </c>
       <c r="H26">
-        <v>1.011598749026731</v>
+        <v>1.011600528441368</v>
       </c>
       <c r="I26">
-        <v>0.9139744428533738</v>
+        <v>0.913972683505371</v>
       </c>
       <c r="J26">
-        <v>1.105873865051404</v>
+        <v>1.105870336823763</v>
       </c>
       <c r="K26">
-        <v>0.9139744428533738</v>
+        <v>0.913972683505371</v>
       </c>
       <c r="L26">
-        <v>1.011598749026731</v>
+        <v>1.011600528441368</v>
       </c>
       <c r="M26">
-        <v>1.058736307039067</v>
+        <v>1.058735432632566</v>
       </c>
       <c r="N26">
-        <v>1.058736307039067</v>
+        <v>1.058735432632566</v>
       </c>
       <c r="O26">
-        <v>1.048447743491057</v>
+        <v>1.048446591547179</v>
       </c>
       <c r="P26">
-        <v>1.010482352310503</v>
+        <v>1.010481182923501</v>
       </c>
       <c r="Q26">
-        <v>1.010482352310503</v>
+        <v>1.010481182923501</v>
       </c>
       <c r="R26">
-        <v>0.9863553749462206</v>
+        <v>0.9863540580689685</v>
       </c>
       <c r="S26">
-        <v>0.9863553749462206</v>
+        <v>0.9863540580689685</v>
       </c>
       <c r="T26">
-        <v>1.014940854502714</v>
+        <v>1.014940802968223</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.04552428061397</v>
+        <v>0.6737186276805958</v>
       </c>
       <c r="D27">
-        <v>0.958045039594799</v>
+        <v>1.102821476483997</v>
       </c>
       <c r="E27">
-        <v>1.026861000861949</v>
+        <v>1.127520624668179</v>
       </c>
       <c r="F27">
-        <v>1.021810663368955</v>
+        <v>0.9631443057013797</v>
       </c>
       <c r="G27">
-        <v>0.867186858808318</v>
+        <v>1.080281504311605</v>
       </c>
       <c r="H27">
-        <v>1.020719004920884</v>
+        <v>0.8953089218242102</v>
       </c>
       <c r="I27">
-        <v>1.026861000861949</v>
+        <v>1.127520624668179</v>
       </c>
       <c r="J27">
-        <v>0.867186858808318</v>
+        <v>1.080281504311605</v>
       </c>
       <c r="K27">
-        <v>1.026861000861949</v>
+        <v>1.127520624668179</v>
       </c>
       <c r="L27">
-        <v>1.020719004920884</v>
+        <v>0.8953089218242102</v>
       </c>
       <c r="M27">
-        <v>0.9439529318646012</v>
+        <v>0.9877952130679077</v>
       </c>
       <c r="N27">
-        <v>0.9439529318646012</v>
+        <v>0.9877952130679077</v>
       </c>
       <c r="O27">
-        <v>0.9486503011080005</v>
+        <v>1.026137300873271</v>
       </c>
       <c r="P27">
-        <v>0.971588954863717</v>
+        <v>1.034370350267998</v>
       </c>
       <c r="Q27">
-        <v>0.971588954863717</v>
+        <v>1.034370350267998</v>
       </c>
       <c r="R27">
-        <v>0.985406966363275</v>
+        <v>1.057657918868044</v>
       </c>
       <c r="S27">
-        <v>0.985406966363275</v>
+        <v>1.057657918868044</v>
       </c>
       <c r="T27">
-        <v>0.9900244746948127</v>
+        <v>0.9737992434449945</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9241073339474747</v>
+        <v>1.047247122546089</v>
       </c>
       <c r="D28">
-        <v>1.002272974705977</v>
+        <v>1.027870616395036</v>
       </c>
       <c r="E28">
-        <v>1.048888571255554</v>
+        <v>0.9139744428533738</v>
       </c>
       <c r="F28">
-        <v>1.002719802142311</v>
+        <v>0.9830803311436496</v>
       </c>
       <c r="G28">
-        <v>0.9902034891245525</v>
+        <v>1.105873865051404</v>
       </c>
       <c r="H28">
-        <v>0.9842386523665353</v>
+        <v>1.011598749026731</v>
       </c>
       <c r="I28">
-        <v>1.048888571255554</v>
+        <v>0.9139744428533738</v>
       </c>
       <c r="J28">
-        <v>0.9902034891245525</v>
+        <v>1.105873865051404</v>
       </c>
       <c r="K28">
-        <v>1.048888571255554</v>
+        <v>0.9139744428533738</v>
       </c>
       <c r="L28">
-        <v>0.9842386523665353</v>
+        <v>1.011598749026731</v>
       </c>
       <c r="M28">
-        <v>0.9872210707455439</v>
+        <v>1.058736307039067</v>
       </c>
       <c r="N28">
-        <v>0.9872210707455439</v>
+        <v>1.058736307039067</v>
       </c>
       <c r="O28">
-        <v>0.9922383720656883</v>
+        <v>1.048447743491057</v>
       </c>
       <c r="P28">
-        <v>1.007776904248881</v>
+        <v>1.010482352310503</v>
       </c>
       <c r="Q28">
-        <v>1.007776904248881</v>
+        <v>1.010482352310503</v>
       </c>
       <c r="R28">
-        <v>1.018054821000549</v>
+        <v>0.9863553749462206</v>
       </c>
       <c r="S28">
-        <v>1.018054821000549</v>
+        <v>0.9863553749462206</v>
       </c>
       <c r="T28">
-        <v>0.992071803923734</v>
+        <v>1.014940854502714</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.04552428061397</v>
+      </c>
+      <c r="D29">
+        <v>0.958045039594799</v>
+      </c>
+      <c r="E29">
+        <v>1.026861000861949</v>
+      </c>
+      <c r="F29">
+        <v>1.021810663368955</v>
+      </c>
+      <c r="G29">
+        <v>0.867186858808318</v>
+      </c>
+      <c r="H29">
+        <v>1.020719004920884</v>
+      </c>
+      <c r="I29">
+        <v>1.026861000861949</v>
+      </c>
+      <c r="J29">
+        <v>0.867186858808318</v>
+      </c>
+      <c r="K29">
+        <v>1.026861000861949</v>
+      </c>
+      <c r="L29">
+        <v>1.020719004920884</v>
+      </c>
+      <c r="M29">
+        <v>0.9439529318646012</v>
+      </c>
+      <c r="N29">
+        <v>0.9439529318646012</v>
+      </c>
+      <c r="O29">
+        <v>0.9486503011080005</v>
+      </c>
+      <c r="P29">
+        <v>0.971588954863717</v>
+      </c>
+      <c r="Q29">
+        <v>0.971588954863717</v>
+      </c>
+      <c r="R29">
+        <v>0.985406966363275</v>
+      </c>
+      <c r="S29">
+        <v>0.985406966363275</v>
+      </c>
+      <c r="T29">
+        <v>0.9900244746948127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9241073339474747</v>
+      </c>
+      <c r="D30">
+        <v>1.002272974705977</v>
+      </c>
+      <c r="E30">
+        <v>1.048888571255554</v>
+      </c>
+      <c r="F30">
+        <v>1.002719802142311</v>
+      </c>
+      <c r="G30">
+        <v>0.9902034891245525</v>
+      </c>
+      <c r="H30">
+        <v>0.9842386523665353</v>
+      </c>
+      <c r="I30">
+        <v>1.048888571255554</v>
+      </c>
+      <c r="J30">
+        <v>0.9902034891245525</v>
+      </c>
+      <c r="K30">
+        <v>1.048888571255554</v>
+      </c>
+      <c r="L30">
+        <v>0.9842386523665353</v>
+      </c>
+      <c r="M30">
+        <v>0.9872210707455439</v>
+      </c>
+      <c r="N30">
+        <v>0.9872210707455439</v>
+      </c>
+      <c r="O30">
+        <v>0.9922383720656883</v>
+      </c>
+      <c r="P30">
+        <v>1.007776904248881</v>
+      </c>
+      <c r="Q30">
+        <v>1.007776904248881</v>
+      </c>
+      <c r="R30">
+        <v>1.018054821000549</v>
+      </c>
+      <c r="S30">
+        <v>1.018054821000549</v>
+      </c>
+      <c r="T30">
+        <v>0.992071803923734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.7202284127805282</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.152291608668004</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9955413384195659</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9366730616809061</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.240191224018571</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9135382595952773</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9955413384195659</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.240191224018571</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9955413384195659</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9135382595952773</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.076864741806924</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.076864741806924</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.102007030760617</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.049756940677805</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.049756940677805</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.036203040113245</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.036203040113245</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9930773175271422</v>
       </c>
     </row>
